--- a/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.280735864302438</v>
+        <v>7.280735864302534</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.52250560867231</v>
+        <v>4.522505608672433</v>
       </c>
       <c r="E2">
-        <v>32.69004749724089</v>
+        <v>32.69004749724087</v>
       </c>
       <c r="F2">
-        <v>40.37154097074836</v>
+        <v>40.37154097074811</v>
       </c>
       <c r="G2">
-        <v>31.80681723364494</v>
+        <v>31.80681723364475</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>73.95265114670561</v>
+        <v>73.95265114670549</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.912833007907862</v>
+        <v>6.912833007907934</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.966123647752368</v>
+        <v>3.966123647752362</v>
       </c>
       <c r="E3">
-        <v>29.89308592934541</v>
+        <v>29.89308592934542</v>
       </c>
       <c r="F3">
-        <v>36.48104180606753</v>
+        <v>36.48104180606731</v>
       </c>
       <c r="G3">
-        <v>28.65200757572881</v>
+        <v>28.65200757572859</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>68.50174348819544</v>
+        <v>68.50174348819552</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.681789970962234</v>
+        <v>6.681789970962236</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.634458405736094</v>
+        <v>3.634458405735904</v>
       </c>
       <c r="E4">
-        <v>28.16045866067083</v>
+        <v>28.16045866067093</v>
       </c>
       <c r="F4">
-        <v>34.11866442003767</v>
+        <v>34.11866442003777</v>
       </c>
       <c r="G4">
-        <v>26.73640459098733</v>
+        <v>26.7364045909874</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>65.03607003330187</v>
+        <v>65.03607003330194</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.586425803876325</v>
+        <v>6.586425803876401</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.500950056187671</v>
+        <v>3.500950056187798</v>
       </c>
       <c r="E5">
-        <v>27.4474984559988</v>
+        <v>27.44749845599869</v>
       </c>
       <c r="F5">
-        <v>33.15875825417767</v>
+        <v>33.15875825417755</v>
       </c>
       <c r="G5">
-        <v>25.95785882123428</v>
+        <v>25.9578588212342</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>63.59101020889171</v>
+        <v>63.5910102088916</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.570520410957154</v>
+        <v>6.570520410957102</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.478859292572307</v>
+        <v>3.478859292572363</v>
       </c>
       <c r="E6">
-        <v>27.32861919421012</v>
+        <v>27.3286191942101</v>
       </c>
       <c r="F6">
-        <v>32.99944325285</v>
+        <v>32.99944325284992</v>
       </c>
       <c r="G6">
-        <v>25.82862778226698</v>
+        <v>25.82862778226694</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>63.34900647373205</v>
+        <v>63.34900647373217</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.680508634583365</v>
+        <v>6.680508634583428</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.632652180278335</v>
+        <v>3.632652180278396</v>
       </c>
       <c r="E7">
-        <v>28.15087488801857</v>
+        <v>28.15087488801856</v>
       </c>
       <c r="F7">
-        <v>34.10571179373457</v>
+        <v>34.10571179373449</v>
       </c>
       <c r="G7">
-        <v>26.72590014772529</v>
+        <v>26.72590014772523</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>65.01671752637529</v>
+        <v>65.01671752637525</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.154991918772573</v>
+        <v>7.154991918772597</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.328013774822635</v>
+        <v>4.328013774822645</v>
       </c>
       <c r="E8">
-        <v>31.72672856236148</v>
+        <v>31.72672856236144</v>
       </c>
       <c r="F8">
-        <v>39.02189701176008</v>
+        <v>39.02189701175999</v>
       </c>
       <c r="G8">
-        <v>30.71226244518826</v>
+        <v>30.71226244518819</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>72.09587531241041</v>
+        <v>72.09587531241012</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.042680057616804</v>
+        <v>8.042680057616801</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.825124775581036</v>
+        <v>5.825124775580972</v>
       </c>
       <c r="E9">
-        <v>38.81495807123748</v>
+        <v>38.81495807123746</v>
       </c>
       <c r="F9">
-        <v>49.1332200320332</v>
+        <v>49.13322003203297</v>
       </c>
       <c r="G9">
-        <v>38.92098366774057</v>
+        <v>38.92098366774039</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85.21430928573591</v>
+        <v>85.21430928573578</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.755453479664983</v>
+        <v>8.755453479664943</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.129893215697683</v>
+        <v>7.129893215697816</v>
       </c>
       <c r="E10">
-        <v>44.52615428081882</v>
+        <v>44.52615428081876</v>
       </c>
       <c r="F10">
-        <v>57.45806439663721</v>
+        <v>57.45806439663729</v>
       </c>
       <c r="G10">
-        <v>45.70186113714949</v>
+        <v>45.70186113714956</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>94.77651878785863</v>
+        <v>94.77651878785846</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.093055139203198</v>
+        <v>9.093055139203141</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.825326325252425</v>
+        <v>7.82532632525237</v>
       </c>
       <c r="E11">
-        <v>47.45375186853744</v>
+        <v>47.45375186853736</v>
       </c>
       <c r="F11">
-        <v>61.72534379643076</v>
+        <v>61.72534379643039</v>
       </c>
       <c r="G11">
-        <v>49.18816617441675</v>
+        <v>49.18816617441645</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>99.28388461903133</v>
+        <v>99.28388461903083</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.219783102915944</v>
+        <v>9.21978310291591</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.113638557181376</v>
+        <v>8.113638557181451</v>
       </c>
       <c r="E12">
-        <v>48.65063860434012</v>
+        <v>48.65063860434</v>
       </c>
       <c r="F12">
-        <v>63.46140446011045</v>
+        <v>63.46140446011035</v>
       </c>
       <c r="G12">
-        <v>50.60878333533606</v>
+        <v>50.60878333533601</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>101.0437098620272</v>
+        <v>101.0437098620271</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.192527253390361</v>
+        <v>9.192527253390326</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.050163413906592</v>
+        <v>8.050163413906734</v>
       </c>
       <c r="E13">
-        <v>48.387844448027</v>
+        <v>48.38784444802728</v>
       </c>
       <c r="F13">
-        <v>63.08083176074318</v>
+        <v>63.08083176074376</v>
       </c>
       <c r="G13">
-        <v>50.29724319188825</v>
+        <v>50.29724319188873</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>100.6615559311778</v>
+        <v>100.661555931178</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.103499228983218</v>
+        <v>9.103499228983171</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.848452535367905</v>
+        <v>7.84845253536789</v>
       </c>
       <c r="E14">
-        <v>47.55007619692977</v>
+        <v>47.55007619692982</v>
       </c>
       <c r="F14">
-        <v>61.86530419292045</v>
+        <v>61.86530419292037</v>
       </c>
       <c r="G14">
-        <v>49.30264512341162</v>
+        <v>49.30264512341156</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>99.42733440197709</v>
+        <v>99.42733440197735</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.04884290973715</v>
+        <v>9.048842909737134</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.728610571758356</v>
+        <v>7.728610571758492</v>
       </c>
       <c r="E15">
-        <v>47.05026707705951</v>
+        <v>47.05026707705986</v>
       </c>
       <c r="F15">
-        <v>61.1386743124491</v>
+        <v>61.13867431244995</v>
       </c>
       <c r="G15">
-        <v>48.70840158120424</v>
+        <v>48.70840158120493</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>98.67957695627612</v>
+        <v>98.67957695627658</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.733200069826571</v>
+        <v>8.733200069826568</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.087198155304884</v>
+        <v>7.087198155304828</v>
       </c>
       <c r="E16">
-        <v>44.34421562122911</v>
+        <v>44.34421562122925</v>
       </c>
       <c r="F16">
-        <v>57.19234061644407</v>
+        <v>57.19234061644421</v>
       </c>
       <c r="G16">
-        <v>45.48501975820459</v>
+        <v>45.4850197582047</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.536955753865831</v>
+        <v>8.536955753865797</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.724924934817561</v>
+        <v>6.724924934817432</v>
       </c>
       <c r="E17">
-        <v>42.78847567953527</v>
+        <v>42.7884756795354</v>
       </c>
       <c r="F17">
-        <v>54.91983045916339</v>
+        <v>54.91983045916361</v>
       </c>
       <c r="G17">
-        <v>43.63169629505354</v>
+        <v>43.63169629505369</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>91.97089692938933</v>
+        <v>91.97089692938961</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.422986939648331</v>
+        <v>8.422986939648325</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.525279946315512</v>
+        <v>6.525279946315505</v>
       </c>
       <c r="E18">
-        <v>41.9212264119407</v>
+        <v>41.92122641194074</v>
       </c>
       <c r="F18">
-        <v>53.65366654260539</v>
+        <v>53.65366654260553</v>
       </c>
       <c r="G18">
-        <v>42.59994260404195</v>
+        <v>42.59994260404205</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>90.53587538722554</v>
+        <v>90.53587538722577</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.384200798871234</v>
+        <v>8.384200798871277</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.45898283959724</v>
+        <v>6.45898283959713</v>
       </c>
       <c r="E19">
-        <v>41.63155405716094</v>
+        <v>41.631554057161</v>
       </c>
       <c r="F19">
-        <v>53.23100238252727</v>
+        <v>53.23100238252763</v>
       </c>
       <c r="G19">
-        <v>42.25565908177577</v>
+        <v>42.25565908177604</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>90.05151674824724</v>
+        <v>90.05151674824708</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.557956966857729</v>
+        <v>8.55795696685769</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.762536117600596</v>
+        <v>6.762536117600712</v>
       </c>
       <c r="E20">
-        <v>42.95103746263161</v>
+        <v>42.95103746263158</v>
       </c>
       <c r="F20">
-        <v>55.15725684219053</v>
+        <v>55.15725684219044</v>
       </c>
       <c r="G20">
-        <v>43.82523371199851</v>
+        <v>43.82523371199846</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>92.23733950098175</v>
+        <v>92.23733950098188</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.12967327451425</v>
+        <v>9.129673274514195</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.906892827006438</v>
+        <v>7.90689282700651</v>
       </c>
       <c r="E21">
-        <v>47.79323122232527</v>
+        <v>47.79323122232532</v>
       </c>
       <c r="F21">
-        <v>62.21843528909832</v>
+        <v>62.21843528909849</v>
       </c>
       <c r="G21">
-        <v>49.59152354721591</v>
+        <v>49.59152354721603</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>99.7880411179141</v>
+        <v>99.78804111791399</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.49745479789237</v>
+        <v>9.497454797892388</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.814972004536312</v>
+        <v>8.814972004536319</v>
       </c>
       <c r="E22">
-        <v>51.53277010103843</v>
+        <v>51.5327701010383</v>
       </c>
       <c r="F22">
-        <v>67.6053626189201</v>
+        <v>67.60536261891963</v>
       </c>
       <c r="G22">
-        <v>54.00554170595168</v>
+        <v>54.00554170595132</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>105.073642488257</v>
+        <v>105.0736424882567</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.301402806111437</v>
+        <v>9.301402806111431</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.308953392882302</v>
+        <v>8.308953392882186</v>
       </c>
       <c r="E23">
-        <v>49.45698215894586</v>
+        <v>49.45698215894591</v>
       </c>
       <c r="F23">
-        <v>64.62666309714625</v>
+        <v>64.62666309714649</v>
       </c>
       <c r="G23">
-        <v>51.56309465247267</v>
+        <v>51.5630946524728</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>102.2011775244504</v>
+        <v>102.2011775244502</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.548465917012377</v>
+        <v>8.548465917012388</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.745505841511222</v>
+        <v>6.745505841511281</v>
       </c>
       <c r="E24">
-        <v>42.87746109813162</v>
+        <v>42.87746109813166</v>
       </c>
       <c r="F24">
-        <v>55.04979383926776</v>
+        <v>55.04979383926798</v>
       </c>
       <c r="G24">
-        <v>43.73763291489252</v>
+        <v>43.73763291489271</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>92.11684641429882</v>
+        <v>92.11684641429873</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.807233267980716</v>
+        <v>7.807233267980774</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.396349990830968</v>
+        <v>5.396349990830958</v>
       </c>
       <c r="E25">
-        <v>36.85472139397697</v>
+        <v>36.85472139397701</v>
       </c>
       <c r="F25">
-        <v>46.30121069116174</v>
+        <v>46.30121069116178</v>
       </c>
       <c r="G25">
-        <v>36.61944263175916</v>
+        <v>36.61944263175918</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>81.71661784891981</v>
+        <v>81.71661784892017</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.280735864302534</v>
+        <v>7.280735864302438</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.522505608672433</v>
+        <v>4.52250560867231</v>
       </c>
       <c r="E2">
-        <v>32.69004749724087</v>
+        <v>32.69004749724089</v>
       </c>
       <c r="F2">
-        <v>40.37154097074811</v>
+        <v>40.37154097074836</v>
       </c>
       <c r="G2">
-        <v>31.80681723364475</v>
+        <v>31.80681723364494</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>73.95265114670549</v>
+        <v>73.95265114670561</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.912833007907934</v>
+        <v>6.912833007907862</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.966123647752362</v>
+        <v>3.966123647752368</v>
       </c>
       <c r="E3">
-        <v>29.89308592934542</v>
+        <v>29.89308592934541</v>
       </c>
       <c r="F3">
-        <v>36.48104180606731</v>
+        <v>36.48104180606753</v>
       </c>
       <c r="G3">
-        <v>28.65200757572859</v>
+        <v>28.65200757572881</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>68.50174348819552</v>
+        <v>68.50174348819544</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.681789970962236</v>
+        <v>6.681789970962234</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.634458405735904</v>
+        <v>3.634458405736094</v>
       </c>
       <c r="E4">
-        <v>28.16045866067093</v>
+        <v>28.16045866067083</v>
       </c>
       <c r="F4">
-        <v>34.11866442003777</v>
+        <v>34.11866442003767</v>
       </c>
       <c r="G4">
-        <v>26.7364045909874</v>
+        <v>26.73640459098733</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>65.03607003330194</v>
+        <v>65.03607003330187</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.586425803876401</v>
+        <v>6.586425803876325</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.500950056187798</v>
+        <v>3.500950056187671</v>
       </c>
       <c r="E5">
-        <v>27.44749845599869</v>
+        <v>27.4474984559988</v>
       </c>
       <c r="F5">
-        <v>33.15875825417755</v>
+        <v>33.15875825417767</v>
       </c>
       <c r="G5">
-        <v>25.9578588212342</v>
+        <v>25.95785882123428</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>63.5910102088916</v>
+        <v>63.59101020889171</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.570520410957102</v>
+        <v>6.570520410957154</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.478859292572363</v>
+        <v>3.478859292572307</v>
       </c>
       <c r="E6">
-        <v>27.3286191942101</v>
+        <v>27.32861919421012</v>
       </c>
       <c r="F6">
-        <v>32.99944325284992</v>
+        <v>32.99944325285</v>
       </c>
       <c r="G6">
-        <v>25.82862778226694</v>
+        <v>25.82862778226698</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>63.34900647373217</v>
+        <v>63.34900647373205</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.680508634583428</v>
+        <v>6.680508634583365</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.632652180278396</v>
+        <v>3.632652180278335</v>
       </c>
       <c r="E7">
-        <v>28.15087488801856</v>
+        <v>28.15087488801857</v>
       </c>
       <c r="F7">
-        <v>34.10571179373449</v>
+        <v>34.10571179373457</v>
       </c>
       <c r="G7">
-        <v>26.72590014772523</v>
+        <v>26.72590014772529</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>65.01671752637525</v>
+        <v>65.01671752637529</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.154991918772597</v>
+        <v>7.154991918772573</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.328013774822645</v>
+        <v>4.328013774822635</v>
       </c>
       <c r="E8">
-        <v>31.72672856236144</v>
+        <v>31.72672856236148</v>
       </c>
       <c r="F8">
-        <v>39.02189701175999</v>
+        <v>39.02189701176008</v>
       </c>
       <c r="G8">
-        <v>30.71226244518819</v>
+        <v>30.71226244518826</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>72.09587531241012</v>
+        <v>72.09587531241041</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.042680057616801</v>
+        <v>8.042680057616804</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.825124775580972</v>
+        <v>5.825124775581036</v>
       </c>
       <c r="E9">
-        <v>38.81495807123746</v>
+        <v>38.81495807123748</v>
       </c>
       <c r="F9">
-        <v>49.13322003203297</v>
+        <v>49.1332200320332</v>
       </c>
       <c r="G9">
-        <v>38.92098366774039</v>
+        <v>38.92098366774057</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85.21430928573578</v>
+        <v>85.21430928573591</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.755453479664943</v>
+        <v>8.755453479664983</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.129893215697816</v>
+        <v>7.129893215697683</v>
       </c>
       <c r="E10">
-        <v>44.52615428081876</v>
+        <v>44.52615428081882</v>
       </c>
       <c r="F10">
-        <v>57.45806439663729</v>
+        <v>57.45806439663721</v>
       </c>
       <c r="G10">
-        <v>45.70186113714956</v>
+        <v>45.70186113714949</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>94.77651878785846</v>
+        <v>94.77651878785863</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.093055139203141</v>
+        <v>9.093055139203198</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.82532632525237</v>
+        <v>7.825326325252425</v>
       </c>
       <c r="E11">
-        <v>47.45375186853736</v>
+        <v>47.45375186853744</v>
       </c>
       <c r="F11">
-        <v>61.72534379643039</v>
+        <v>61.72534379643076</v>
       </c>
       <c r="G11">
-        <v>49.18816617441645</v>
+        <v>49.18816617441675</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>99.28388461903083</v>
+        <v>99.28388461903133</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.21978310291591</v>
+        <v>9.219783102915944</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.113638557181451</v>
+        <v>8.113638557181376</v>
       </c>
       <c r="E12">
-        <v>48.65063860434</v>
+        <v>48.65063860434012</v>
       </c>
       <c r="F12">
-        <v>63.46140446011035</v>
+        <v>63.46140446011045</v>
       </c>
       <c r="G12">
-        <v>50.60878333533601</v>
+        <v>50.60878333533606</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>101.0437098620271</v>
+        <v>101.0437098620272</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.192527253390326</v>
+        <v>9.192527253390361</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.050163413906734</v>
+        <v>8.050163413906592</v>
       </c>
       <c r="E13">
-        <v>48.38784444802728</v>
+        <v>48.387844448027</v>
       </c>
       <c r="F13">
-        <v>63.08083176074376</v>
+        <v>63.08083176074318</v>
       </c>
       <c r="G13">
-        <v>50.29724319188873</v>
+        <v>50.29724319188825</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>100.661555931178</v>
+        <v>100.6615559311778</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.103499228983171</v>
+        <v>9.103499228983218</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.84845253536789</v>
+        <v>7.848452535367905</v>
       </c>
       <c r="E14">
-        <v>47.55007619692982</v>
+        <v>47.55007619692977</v>
       </c>
       <c r="F14">
-        <v>61.86530419292037</v>
+        <v>61.86530419292045</v>
       </c>
       <c r="G14">
-        <v>49.30264512341156</v>
+        <v>49.30264512341162</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>99.42733440197735</v>
+        <v>99.42733440197709</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.048842909737134</v>
+        <v>9.04884290973715</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.728610571758492</v>
+        <v>7.728610571758356</v>
       </c>
       <c r="E15">
-        <v>47.05026707705986</v>
+        <v>47.05026707705951</v>
       </c>
       <c r="F15">
-        <v>61.13867431244995</v>
+        <v>61.1386743124491</v>
       </c>
       <c r="G15">
-        <v>48.70840158120493</v>
+        <v>48.70840158120424</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>98.67957695627658</v>
+        <v>98.67957695627612</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.733200069826568</v>
+        <v>8.733200069826571</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.087198155304828</v>
+        <v>7.087198155304884</v>
       </c>
       <c r="E16">
-        <v>44.34421562122925</v>
+        <v>44.34421562122911</v>
       </c>
       <c r="F16">
-        <v>57.19234061644421</v>
+        <v>57.19234061644407</v>
       </c>
       <c r="G16">
-        <v>45.4850197582047</v>
+        <v>45.48501975820459</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.536955753865797</v>
+        <v>8.536955753865831</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.724924934817432</v>
+        <v>6.724924934817561</v>
       </c>
       <c r="E17">
-        <v>42.7884756795354</v>
+        <v>42.78847567953527</v>
       </c>
       <c r="F17">
-        <v>54.91983045916361</v>
+        <v>54.91983045916339</v>
       </c>
       <c r="G17">
-        <v>43.63169629505369</v>
+        <v>43.63169629505354</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>91.97089692938961</v>
+        <v>91.97089692938933</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.422986939648325</v>
+        <v>8.422986939648331</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.525279946315505</v>
+        <v>6.525279946315512</v>
       </c>
       <c r="E18">
-        <v>41.92122641194074</v>
+        <v>41.9212264119407</v>
       </c>
       <c r="F18">
-        <v>53.65366654260553</v>
+        <v>53.65366654260539</v>
       </c>
       <c r="G18">
-        <v>42.59994260404205</v>
+        <v>42.59994260404195</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>90.53587538722577</v>
+        <v>90.53587538722554</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.384200798871277</v>
+        <v>8.384200798871234</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.45898283959713</v>
+        <v>6.45898283959724</v>
       </c>
       <c r="E19">
-        <v>41.631554057161</v>
+        <v>41.63155405716094</v>
       </c>
       <c r="F19">
-        <v>53.23100238252763</v>
+        <v>53.23100238252727</v>
       </c>
       <c r="G19">
-        <v>42.25565908177604</v>
+        <v>42.25565908177577</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>90.05151674824708</v>
+        <v>90.05151674824724</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.55795696685769</v>
+        <v>8.557956966857729</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.762536117600712</v>
+        <v>6.762536117600596</v>
       </c>
       <c r="E20">
-        <v>42.95103746263158</v>
+        <v>42.95103746263161</v>
       </c>
       <c r="F20">
-        <v>55.15725684219044</v>
+        <v>55.15725684219053</v>
       </c>
       <c r="G20">
-        <v>43.82523371199846</v>
+        <v>43.82523371199851</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>92.23733950098188</v>
+        <v>92.23733950098175</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.129673274514195</v>
+        <v>9.12967327451425</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.90689282700651</v>
+        <v>7.906892827006438</v>
       </c>
       <c r="E21">
-        <v>47.79323122232532</v>
+        <v>47.79323122232527</v>
       </c>
       <c r="F21">
-        <v>62.21843528909849</v>
+        <v>62.21843528909832</v>
       </c>
       <c r="G21">
-        <v>49.59152354721603</v>
+        <v>49.59152354721591</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>99.78804111791399</v>
+        <v>99.7880411179141</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.497454797892388</v>
+        <v>9.49745479789237</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.814972004536319</v>
+        <v>8.814972004536312</v>
       </c>
       <c r="E22">
-        <v>51.5327701010383</v>
+        <v>51.53277010103843</v>
       </c>
       <c r="F22">
-        <v>67.60536261891963</v>
+        <v>67.6053626189201</v>
       </c>
       <c r="G22">
-        <v>54.00554170595132</v>
+        <v>54.00554170595168</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>105.0736424882567</v>
+        <v>105.073642488257</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.301402806111431</v>
+        <v>9.301402806111437</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.308953392882186</v>
+        <v>8.308953392882302</v>
       </c>
       <c r="E23">
-        <v>49.45698215894591</v>
+        <v>49.45698215894586</v>
       </c>
       <c r="F23">
-        <v>64.62666309714649</v>
+        <v>64.62666309714625</v>
       </c>
       <c r="G23">
-        <v>51.5630946524728</v>
+        <v>51.56309465247267</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>102.2011775244502</v>
+        <v>102.2011775244504</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.548465917012388</v>
+        <v>8.548465917012377</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.745505841511281</v>
+        <v>6.745505841511222</v>
       </c>
       <c r="E24">
-        <v>42.87746109813166</v>
+        <v>42.87746109813162</v>
       </c>
       <c r="F24">
-        <v>55.04979383926798</v>
+        <v>55.04979383926776</v>
       </c>
       <c r="G24">
-        <v>43.73763291489271</v>
+        <v>43.73763291489252</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>92.11684641429873</v>
+        <v>92.11684641429882</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.807233267980774</v>
+        <v>7.807233267980716</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.396349990830958</v>
+        <v>5.396349990830968</v>
       </c>
       <c r="E25">
-        <v>36.85472139397701</v>
+        <v>36.85472139397697</v>
       </c>
       <c r="F25">
-        <v>46.30121069116178</v>
+        <v>46.30121069116174</v>
       </c>
       <c r="G25">
-        <v>36.61944263175918</v>
+        <v>36.61944263175916</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>81.71661784892017</v>
+        <v>81.71661784891981</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.280735864302438</v>
+        <v>7.280679994653193</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.52250560867231</v>
+        <v>4.514764248186355</v>
       </c>
       <c r="E2">
-        <v>32.69004749724089</v>
+        <v>32.68591669152837</v>
       </c>
       <c r="F2">
-        <v>40.37154097074836</v>
+        <v>40.32789873979011</v>
       </c>
       <c r="G2">
-        <v>31.80681723364494</v>
+        <v>31.84620134608546</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>31.14219325488209</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>73.95265114670561</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>73.94435087625654</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.912833007907862</v>
+        <v>6.912796745377348</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.966123647752368</v>
+        <v>3.959425899217988</v>
       </c>
       <c r="E3">
-        <v>29.89308592934541</v>
+        <v>29.89011755774279</v>
       </c>
       <c r="F3">
-        <v>36.48104180606753</v>
+        <v>36.44230371797956</v>
       </c>
       <c r="G3">
-        <v>28.65200757572881</v>
+        <v>28.68799263904651</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>28.0723296019107</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>68.50174348819544</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>68.49530571811925</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.681789970962234</v>
+        <v>6.681763576390767</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.634458405736094</v>
+        <v>3.628364674978217</v>
       </c>
       <c r="E4">
-        <v>28.16045866067083</v>
+        <v>28.15807428918201</v>
       </c>
       <c r="F4">
-        <v>34.11866442003767</v>
+        <v>34.08274454481552</v>
       </c>
       <c r="G4">
-        <v>26.73640459098733</v>
+        <v>26.7702155001936</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26.2188538831558</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>65.03607003330187</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>65.03063033034779</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.586425803876325</v>
+        <v>6.586402997304414</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.500950056187671</v>
+        <v>3.495096484457511</v>
       </c>
       <c r="E5">
-        <v>27.4474984559988</v>
+        <v>27.44532839530295</v>
       </c>
       <c r="F5">
-        <v>33.15875825417767</v>
+        <v>33.12395410944113</v>
       </c>
       <c r="G5">
-        <v>25.95785882123428</v>
+        <v>25.99076735082891</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.46835757713969</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>63.59101020889171</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>63.58595036759437</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.570520410957154</v>
+        <v>6.570498176666742</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.478859292572307</v>
+        <v>3.473045314202428</v>
       </c>
       <c r="E6">
-        <v>27.32861919421012</v>
+        <v>27.32648349480887</v>
       </c>
       <c r="F6">
-        <v>32.99944325285</v>
+        <v>32.96482276718587</v>
       </c>
       <c r="G6">
-        <v>25.82862778226698</v>
+        <v>25.86138560953693</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.34395648416888</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>63.34900647373205</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>63.3440083164147</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.680508634583365</v>
+        <v>6.680482290031053</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.632652180278335</v>
+        <v>3.626561709043999</v>
       </c>
       <c r="E7">
-        <v>28.15087488801857</v>
+        <v>28.14849349305708</v>
       </c>
       <c r="F7">
-        <v>34.10571179373457</v>
+        <v>34.06980708087593</v>
       </c>
       <c r="G7">
-        <v>26.72590014772529</v>
+        <v>26.75969894756778</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26.2087163366816</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>65.01671752637529</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>65.01128304438117</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.154991918772573</v>
+        <v>7.154943340398781</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.328013774822635</v>
+        <v>4.320642218617786</v>
       </c>
       <c r="E8">
-        <v>31.72672856236148</v>
+        <v>31.72303201940014</v>
       </c>
       <c r="F8">
-        <v>39.02189701176008</v>
+        <v>38.97999713439386</v>
       </c>
       <c r="G8">
-        <v>30.71226244518826</v>
+        <v>30.75049669302256</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>30.07498242230665</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>72.09587531241041</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>72.0882543670771</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.042680057616804</v>
+        <v>8.042562533892502</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.825124775581036</v>
+        <v>5.814709727485333</v>
       </c>
       <c r="E9">
-        <v>38.81495807123748</v>
+        <v>38.80695714688077</v>
       </c>
       <c r="F9">
-        <v>49.1332200320332</v>
+        <v>49.07686414532397</v>
       </c>
       <c r="G9">
-        <v>38.92098366774057</v>
+        <v>38.9667734811657</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.11900793150544</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85.21430928573591</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>85.20054023994071</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.755453479664983</v>
+        <v>8.755159227490722</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.129893215697683</v>
+        <v>7.11624497124175</v>
       </c>
       <c r="E10">
-        <v>44.52615428081882</v>
+        <v>44.51182062249666</v>
       </c>
       <c r="F10">
-        <v>57.45806439663721</v>
+        <v>57.38615187754259</v>
       </c>
       <c r="G10">
-        <v>45.70186113714949</v>
+        <v>45.75098687640531</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>44.81194163286222</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>94.77651878785863</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>94.75513744302467</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.093055139203198</v>
+        <v>9.09268517730386</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.825326325252425</v>
+        <v>7.809570783908947</v>
       </c>
       <c r="E11">
-        <v>47.45375186853744</v>
+        <v>47.43440504093153</v>
       </c>
       <c r="F11">
-        <v>61.72534379643076</v>
+        <v>61.64323517501076</v>
       </c>
       <c r="G11">
-        <v>49.18816617441675</v>
+        <v>49.23719482672313</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>48.2628055875085</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>99.28388461903133</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>99.25716004211773</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.219783102915944</v>
+        <v>9.219376969749819</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.113638557181376</v>
+        <v>8.096894803325441</v>
       </c>
       <c r="E12">
-        <v>48.65063860434012</v>
+        <v>48.62872475132686</v>
       </c>
       <c r="F12">
-        <v>63.46140446011045</v>
+        <v>63.37450701888911</v>
       </c>
       <c r="G12">
-        <v>50.60878333533606</v>
+        <v>50.65724546389564</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>49.67023138976951</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>101.0437098620272</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>101.0144105262368</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.192527253390361</v>
+        <v>9.192129359796759</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.050163413906592</v>
+        <v>8.033644021836851</v>
       </c>
       <c r="E13">
-        <v>48.387844448027</v>
+        <v>48.36652484873825</v>
       </c>
       <c r="F13">
-        <v>63.08083176074318</v>
+        <v>62.99502181560621</v>
       </c>
       <c r="G13">
-        <v>50.29724319188825</v>
+        <v>50.34586063741755</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>49.3615343717242</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>100.6615559311778</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>100.6328443308356</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.103499228983218</v>
+        <v>9.103126480562372</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.848452535367905</v>
+        <v>7.832620537935658</v>
       </c>
       <c r="E14">
-        <v>47.55007619692977</v>
+        <v>47.53053548260652</v>
       </c>
       <c r="F14">
-        <v>61.86530419292045</v>
+        <v>61.7828251865849</v>
       </c>
       <c r="G14">
-        <v>49.30264512341162</v>
+        <v>49.35164104189064</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>48.37619883891583</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>99.42733440197709</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>99.40041197167963</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.04884290973715</v>
+        <v>9.048484397034469</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.728610571758356</v>
+        <v>7.713169836769667</v>
       </c>
       <c r="E15">
-        <v>47.05026707705951</v>
+        <v>47.03171001740217</v>
       </c>
       <c r="F15">
-        <v>61.1386743124491</v>
+        <v>61.05809048668684</v>
       </c>
       <c r="G15">
-        <v>48.70840158120424</v>
+        <v>48.75754459789749</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>47.78763844839257</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>98.67957695627612</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>98.65366443142106</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.733200069826571</v>
+        <v>8.732910007848419</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.087198155304884</v>
+        <v>7.073668712499918</v>
       </c>
       <c r="E16">
-        <v>44.34421562122911</v>
+        <v>44.33014477111315</v>
       </c>
       <c r="F16">
-        <v>57.19234061644407</v>
+        <v>57.12100196376372</v>
       </c>
       <c r="G16">
-        <v>45.48501975820459</v>
+        <v>45.53410156964633</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>44.59748018319106</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>94.48720443471667</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>94.46611698903243</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.536955753865831</v>
+        <v>8.53669940448207</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.724924934817561</v>
+        <v>6.712362900656851</v>
       </c>
       <c r="E17">
-        <v>42.78847567953527</v>
+        <v>42.77646188903582</v>
       </c>
       <c r="F17">
-        <v>54.91983045916339</v>
+        <v>54.85315960397207</v>
       </c>
       <c r="G17">
-        <v>43.63169629505354</v>
+        <v>43.68020715996557</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>42.7655042031865</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>91.97089692938933</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>91.95216734826683</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.422986939648331</v>
+        <v>8.422747858869513</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.525279946315512</v>
+        <v>6.513222912755341</v>
       </c>
       <c r="E18">
-        <v>41.9212264119407</v>
+        <v>41.9102263025811</v>
       </c>
       <c r="F18">
-        <v>53.65366654260539</v>
+        <v>53.58942806584509</v>
       </c>
       <c r="G18">
-        <v>42.59994260404195</v>
+        <v>42.64799889632583</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>41.74649255172379</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>90.53587538722554</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>90.51834914183706</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.384200798871234</v>
+        <v>8.383967261132117</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.45898283959724</v>
+        <v>6.447089520460173</v>
       </c>
       <c r="E19">
-        <v>41.63155405716094</v>
+        <v>41.62087351491773</v>
       </c>
       <c r="F19">
-        <v>53.23100238252727</v>
+        <v>53.16755172869519</v>
       </c>
       <c r="G19">
-        <v>42.25565908177577</v>
+        <v>42.30354415105155</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>41.40661072982313</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>90.05151674824724</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>90.03437616581667</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.557956966857729</v>
+        <v>8.557697263990347</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.762536117600596</v>
+        <v>6.749876828063731</v>
       </c>
       <c r="E20">
-        <v>42.95103746263161</v>
+        <v>42.93882365726047</v>
       </c>
       <c r="F20">
-        <v>55.15725684219053</v>
+        <v>55.09011718579938</v>
       </c>
       <c r="G20">
-        <v>43.82523371199851</v>
+        <v>43.87381955370925</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>42.95672314581681</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>92.23733950098175</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>92.21837589989717</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.12967327451425</v>
+        <v>9.129293398155241</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.906892827006438</v>
+        <v>7.890865524100814</v>
       </c>
       <c r="E21">
-        <v>47.79323122232527</v>
+        <v>47.77319158361703</v>
       </c>
       <c r="F21">
-        <v>62.21843528909832</v>
+        <v>62.13501004176067</v>
       </c>
       <c r="G21">
-        <v>49.59152354721591</v>
+        <v>49.6404272080185</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>48.66235619448037</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>99.7880411179141</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>99.76061219633443</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.49745479789237</v>
+        <v>9.49694528634169</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.814972004536312</v>
+        <v>8.795437028261945</v>
       </c>
       <c r="E22">
-        <v>51.53277010103843</v>
+        <v>51.50294415097419</v>
       </c>
       <c r="F22">
-        <v>67.6053626189201</v>
+        <v>67.50493158020319</v>
       </c>
       <c r="G22">
-        <v>54.00554170595168</v>
+        <v>54.05091105616364</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>53.03729944848146</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>105.073642488257</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>105.0369112246959</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.301402806111437</v>
+        <v>9.30097026048843</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.308953392882302</v>
+        <v>8.291492844607196</v>
       </c>
       <c r="E23">
-        <v>49.45698215894586</v>
+        <v>49.43312629855762</v>
       </c>
       <c r="F23">
-        <v>64.62666309714625</v>
+        <v>64.53629063348021</v>
       </c>
       <c r="G23">
-        <v>51.56309465247267</v>
+        <v>51.61096111177707</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>50.61598450188833</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>102.2011775244504</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>102.169989413115</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.548465917012377</v>
+        <v>8.548207736633852</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.745505841511222</v>
+        <v>6.732890675254309</v>
       </c>
       <c r="E24">
-        <v>42.87746109813162</v>
+        <v>42.86533822692735</v>
       </c>
       <c r="F24">
-        <v>55.04979383926776</v>
+        <v>54.9828668846573</v>
       </c>
       <c r="G24">
-        <v>43.73763291489252</v>
+        <v>43.78618523786504</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>42.87016904568407</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>92.11684641429882</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>92.09798907270927</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.807233267980716</v>
+        <v>7.807138618673881</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.396349990830968</v>
+        <v>5.386860135853472</v>
       </c>
       <c r="E25">
-        <v>36.85472139397697</v>
+        <v>36.84820412056629</v>
       </c>
       <c r="F25">
-        <v>46.30121069116174</v>
+        <v>46.24927426191851</v>
       </c>
       <c r="G25">
-        <v>36.61944263175916</v>
+        <v>36.66340110103469</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>35.85550748808694</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>81.71661784891981</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>81.70484306331713</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.280679994653193</v>
+        <v>7.28202909206988</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.514764248186355</v>
+        <v>17.59498400803746</v>
       </c>
       <c r="E2">
-        <v>32.68591669152837</v>
+        <v>18.50059796398623</v>
       </c>
       <c r="F2">
-        <v>40.32789873979011</v>
+        <v>73.65219789623363</v>
       </c>
       <c r="G2">
-        <v>31.84620134608546</v>
+        <v>1.814155769980487</v>
       </c>
       <c r="H2">
-        <v>31.14219325488209</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.056046065316098</v>
       </c>
       <c r="K2">
-        <v>73.94435087625654</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>74.16722847927576</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.912796745377348</v>
+        <v>6.905939389137111</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.959425899217988</v>
+        <v>15.56767647994788</v>
       </c>
       <c r="E3">
-        <v>29.89011755774279</v>
+        <v>16.82434472538862</v>
       </c>
       <c r="F3">
-        <v>36.44230371797956</v>
+        <v>64.62087329290118</v>
       </c>
       <c r="G3">
-        <v>28.68799263904651</v>
+        <v>1.892046562729896</v>
       </c>
       <c r="H3">
-        <v>28.0723296019107</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.467703821111481</v>
       </c>
       <c r="K3">
-        <v>68.49530571811925</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>67.28448398442512</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.681763576390767</v>
+        <v>6.672843568864896</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.628364674978217</v>
+        <v>14.43576741502971</v>
       </c>
       <c r="E4">
-        <v>28.15807428918201</v>
+        <v>15.85021287898637</v>
       </c>
       <c r="F4">
-        <v>34.08274454481552</v>
+        <v>59.93472286653908</v>
       </c>
       <c r="G4">
-        <v>26.7702155001936</v>
+        <v>1.933702370314901</v>
       </c>
       <c r="H4">
-        <v>26.2188538831558</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.240747741328442</v>
       </c>
       <c r="K4">
-        <v>65.03063033034779</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>63.24267623059677</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.586402997304414</v>
+        <v>6.577151464003203</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.495096484457511</v>
+        <v>13.98899493642065</v>
       </c>
       <c r="E5">
-        <v>27.44532839530295</v>
+        <v>15.45863464884237</v>
       </c>
       <c r="F5">
-        <v>33.12395410944113</v>
+        <v>58.16694052870979</v>
       </c>
       <c r="G5">
-        <v>25.99076735082891</v>
+        <v>1.949771501532286</v>
       </c>
       <c r="H5">
-        <v>25.46835757713969</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.1923640392441</v>
       </c>
       <c r="K5">
-        <v>63.58595036759437</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>61.61009042767541</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.570498176666742</v>
+        <v>6.561217779018737</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.473045314202428</v>
+        <v>13.91542428111517</v>
       </c>
       <c r="E6">
-        <v>27.32648349480887</v>
+        <v>15.39378053362136</v>
       </c>
       <c r="F6">
-        <v>32.96482276718587</v>
+        <v>57.8806073709382</v>
       </c>
       <c r="G6">
-        <v>25.86138560953693</v>
+        <v>1.952397163866</v>
       </c>
       <c r="H6">
-        <v>25.34395648416888</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.184544642052504</v>
       </c>
       <c r="K6">
-        <v>63.3440083164147</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>61.33927231574589</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.680482290031053</v>
+        <v>6.671555967998029</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.626561709043999</v>
+        <v>14.42969583442875</v>
       </c>
       <c r="E7">
-        <v>28.14849349305708</v>
+        <v>15.8449176741486</v>
       </c>
       <c r="F7">
-        <v>34.06980708087593</v>
+        <v>59.91037290315187</v>
       </c>
       <c r="G7">
-        <v>26.75969894756778</v>
+        <v>1.933922173258062</v>
       </c>
       <c r="H7">
-        <v>26.2087163366816</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.240080144015856</v>
       </c>
       <c r="K7">
-        <v>65.01128304438117</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>63.22062877445573</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.154943340398781</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.320642218617786</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E8">
-        <v>31.72303201940014</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F8">
-        <v>38.97999713439386</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G8">
-        <v>30.75049669302256</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H8">
-        <v>30.07498242230665</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K8">
-        <v>72.0882543670771</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.042562533892502</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.814709727485333</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E9">
-        <v>38.80695714688077</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F9">
-        <v>49.07686414532397</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G9">
-        <v>38.9667734811657</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H9">
-        <v>38.11900793150544</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K9">
-        <v>85.20054023994071</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.755159227490722</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.11624497124175</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E10">
-        <v>44.51182062249666</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F10">
-        <v>57.38615187754259</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G10">
-        <v>45.75098687640531</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H10">
-        <v>44.81194163286222</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K10">
-        <v>94.75513744302467</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.09268517730386</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.809570783908947</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E11">
-        <v>47.43440504093153</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F11">
-        <v>61.64323517501076</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G11">
-        <v>49.23719482672313</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H11">
-        <v>48.2628055875085</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K11">
-        <v>99.25716004211773</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.219376969749819</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.096894803325441</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E12">
-        <v>48.62872475132686</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F12">
-        <v>63.37450701888911</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G12">
-        <v>50.65724546389564</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H12">
-        <v>49.67023138976951</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K12">
-        <v>101.0144105262368</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.192129359796759</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.033644021836851</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E13">
-        <v>48.36652484873825</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F13">
-        <v>62.99502181560621</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G13">
-        <v>50.34586063741755</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H13">
-        <v>49.3615343717242</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K13">
-        <v>100.6328443308356</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.103126480562372</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.832620537935658</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E14">
-        <v>47.53053548260652</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F14">
-        <v>61.7828251865849</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G14">
-        <v>49.35164104189064</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H14">
-        <v>48.37619883891583</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K14">
-        <v>99.40041197167963</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.048484397034469</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.713169836769667</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E15">
-        <v>47.03171001740217</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F15">
-        <v>61.05809048668684</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G15">
-        <v>48.75754459789749</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H15">
-        <v>47.78763844839257</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K15">
-        <v>98.65366443142106</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.732910007848419</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.073668712499918</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E16">
-        <v>44.33014477111315</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F16">
-        <v>57.12100196376372</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G16">
-        <v>45.53410156964633</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H16">
-        <v>44.59748018319106</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K16">
-        <v>94.46611698903243</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.53669940448207</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.712362900656851</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E17">
-        <v>42.77646188903582</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F17">
-        <v>54.85315960397207</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G17">
-        <v>43.68020715996557</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H17">
-        <v>42.7655042031865</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K17">
-        <v>91.95216734826683</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.422747858869513</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.513222912755341</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E18">
-        <v>41.9102263025811</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F18">
-        <v>53.58942806584509</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G18">
-        <v>42.64799889632583</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H18">
-        <v>41.74649255172379</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K18">
-        <v>90.51834914183706</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.383967261132117</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.447089520460173</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E19">
-        <v>41.62087351491773</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F19">
-        <v>53.16755172869519</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G19">
-        <v>42.30354415105155</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H19">
-        <v>41.40661072982313</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K19">
-        <v>90.03437616581667</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.557697263990347</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.749876828063731</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E20">
-        <v>42.93882365726047</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F20">
-        <v>55.09011718579938</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G20">
-        <v>43.87381955370925</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H20">
-        <v>42.95672314581681</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K20">
-        <v>92.21837589989717</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.129293398155241</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.890865524100814</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E21">
-        <v>47.77319158361703</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F21">
-        <v>62.13501004176067</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G21">
-        <v>49.6404272080185</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H21">
-        <v>48.66235619448037</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K21">
-        <v>99.76061219633443</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.49694528634169</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.795437028261945</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E22">
-        <v>51.50294415097419</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F22">
-        <v>67.50493158020319</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G22">
-        <v>54.05091105616364</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H22">
-        <v>53.03729944848146</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K22">
-        <v>105.0369112246959</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.30097026048843</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.291492844607196</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E23">
-        <v>49.43312629855762</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F23">
-        <v>64.53629063348021</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G23">
-        <v>51.61096111177707</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H23">
-        <v>50.61598450188833</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K23">
-        <v>102.169989413115</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.548207736633852</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.732890675254309</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E24">
-        <v>42.86533822692735</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F24">
-        <v>54.9828668846573</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G24">
-        <v>43.78618523786504</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H24">
-        <v>42.87016904568407</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K24">
-        <v>92.09798907270927</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.807138618673881</v>
+        <v>7.152641249849395</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.386860135853472</v>
+        <v>16.86054382543498</v>
       </c>
       <c r="E25">
-        <v>36.84820412056629</v>
+        <v>17.90388669225514</v>
       </c>
       <c r="F25">
-        <v>46.24927426191851</v>
+        <v>70.29530889484877</v>
       </c>
       <c r="G25">
-        <v>36.66340110103469</v>
+        <v>1.842848838723628</v>
       </c>
       <c r="H25">
-        <v>35.85550748808694</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.849121950700801</v>
       </c>
       <c r="K25">
-        <v>81.70484306331713</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>71.7285690269898</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.28202909206988</v>
+        <v>14.22401402240766</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>17.59498400803746</v>
+        <v>4.519292926485281</v>
       </c>
       <c r="E2">
-        <v>18.50059796398623</v>
+        <v>8.413625810653063</v>
       </c>
       <c r="F2">
-        <v>73.65219789623363</v>
+        <v>29.07339736048272</v>
       </c>
       <c r="G2">
-        <v>1.814155769980487</v>
+        <v>37.58123001863068</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.34870952986843</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.056046065316098</v>
+        <v>6.708746840459677</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.77661978422209</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.090970194747764</v>
       </c>
       <c r="M2">
-        <v>74.16722847927576</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14.56558877694552</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.905939389137111</v>
+        <v>13.59997096400688</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.56767647994788</v>
+        <v>4.480339248587224</v>
       </c>
       <c r="E3">
-        <v>16.82434472538862</v>
+        <v>8.452831993019169</v>
       </c>
       <c r="F3">
-        <v>64.62087329290118</v>
+        <v>28.64269608136255</v>
       </c>
       <c r="G3">
-        <v>1.892046562729896</v>
+        <v>36.72795650367434</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.30407785322878</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.467703821111481</v>
+        <v>6.752995064269546</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.86272885377268</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.815961690391302</v>
       </c>
       <c r="M3">
-        <v>67.28448398442512</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.78997643173121</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.672843568864896</v>
+        <v>13.20929580727821</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.43576741502971</v>
+        <v>4.457426507077009</v>
       </c>
       <c r="E4">
-        <v>15.85021287898637</v>
+        <v>8.478872767603908</v>
       </c>
       <c r="F4">
-        <v>59.93472286653908</v>
+        <v>28.39753005156204</v>
       </c>
       <c r="G4">
-        <v>1.933702370314901</v>
+        <v>36.22871472088214</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.28461194449058</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.240747741328442</v>
+        <v>6.781166985661521</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.27017674706766</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.644729786996882</v>
       </c>
       <c r="M4">
-        <v>63.24267623059677</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.93094658862897</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.577151464003203</v>
+        <v>13.04843360444483</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.98899493642065</v>
+        <v>4.448343130471636</v>
       </c>
       <c r="E5">
-        <v>15.45863464884237</v>
+        <v>8.489973986581511</v>
       </c>
       <c r="F5">
-        <v>58.16694052870979</v>
+        <v>28.30243001098049</v>
       </c>
       <c r="G5">
-        <v>1.949771501532286</v>
+        <v>36.03154817729477</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.27861318063925</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.1923640392441</v>
+        <v>6.792901981948905</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.02076199372053</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.574452740933823</v>
       </c>
       <c r="M5">
-        <v>61.61009042767541</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.98921883240515</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.561217779018737</v>
+        <v>13.02162966402088</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.91542428111517</v>
+        <v>4.446850197754281</v>
       </c>
       <c r="E6">
-        <v>15.39378053362136</v>
+        <v>8.491846740890658</v>
       </c>
       <c r="F6">
-        <v>57.8806073709382</v>
+        <v>28.28692756819386</v>
       </c>
       <c r="G6">
-        <v>1.952397163866</v>
+        <v>35.99918985861908</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.27773204599953</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.184544642052504</v>
+        <v>6.79486602287396</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.97886582360462</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.56275626583487</v>
       </c>
       <c r="M6">
-        <v>61.33927231574589</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.99894540603021</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.671555967998029</v>
+        <v>13.20713275465933</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.42969583442875</v>
+        <v>4.457302976718125</v>
       </c>
       <c r="E7">
-        <v>15.8449176741486</v>
+        <v>8.479020507935081</v>
       </c>
       <c r="F7">
-        <v>59.91037290315187</v>
+        <v>28.39622810074647</v>
       </c>
       <c r="G7">
-        <v>1.933922173258062</v>
+        <v>36.22603015666462</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.28452329631339</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.240080144015856</v>
+        <v>6.781324213440845</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.26684527602239</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.643783886949972</v>
       </c>
       <c r="M7">
-        <v>63.22062877445573</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.93172909603414</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.152641249849395</v>
+        <v>14.01053113455336</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16.86054382543498</v>
+        <v>4.505653739360891</v>
       </c>
       <c r="E8">
-        <v>17.90388669225514</v>
+        <v>8.426732215854036</v>
       </c>
       <c r="F8">
-        <v>70.29530889484877</v>
+        <v>28.9208666680303</v>
       </c>
       <c r="G8">
-        <v>1.842848838723628</v>
+        <v>37.28195026603093</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.33163569610453</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.849121950700801</v>
+        <v>6.723796855588521</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.46800284046944</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.996696173783869</v>
       </c>
       <c r="M8">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14.64230814995907</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.152641249849395</v>
+        <v>15.5178546107822</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.86054382543498</v>
+        <v>4.608404923169354</v>
       </c>
       <c r="E9">
-        <v>17.90388669225514</v>
+        <v>8.340078596868345</v>
       </c>
       <c r="F9">
-        <v>70.29530889484877</v>
+        <v>30.10410378516459</v>
       </c>
       <c r="G9">
-        <v>1.842848838723628</v>
+        <v>39.54452162204342</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.489762429799</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.849121950700801</v>
+        <v>6.618834573113953</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.57645768421275</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.66613768726909</v>
       </c>
       <c r="M9">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.09905400593457</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.152641249849395</v>
+        <v>16.57437400730343</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>16.86054382543498</v>
+        <v>4.688703669310851</v>
       </c>
       <c r="E10">
-        <v>17.90388669225514</v>
+        <v>8.28650471466908</v>
       </c>
       <c r="F10">
-        <v>70.29530889484877</v>
+        <v>31.06897882110755</v>
       </c>
       <c r="G10">
-        <v>1.842848838723628</v>
+        <v>41.31850303079769</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.64974380989193</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.849121950700801</v>
+        <v>6.546343200216877</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.97849377335344</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.139948594393491</v>
       </c>
       <c r="M10">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.71320865822699</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.152641249849395</v>
+        <v>17.04252529232278</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>16.86054382543498</v>
+        <v>4.726278180518329</v>
       </c>
       <c r="E11">
-        <v>17.90388669225514</v>
+        <v>8.264425014663344</v>
       </c>
       <c r="F11">
-        <v>70.29530889484877</v>
+        <v>31.52887762522021</v>
       </c>
       <c r="G11">
-        <v>1.842848838723628</v>
+        <v>42.14873450067866</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.73282415359888</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.849121950700801</v>
+        <v>6.514333719767433</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.58524877708172</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.358093776304964</v>
       </c>
       <c r="M11">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.54021260746082</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.152641249849395</v>
+        <v>17.21792257455193</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>16.86054382543498</v>
+        <v>4.740657637466597</v>
       </c>
       <c r="E12">
-        <v>17.90388669225514</v>
+        <v>8.256403012121284</v>
       </c>
       <c r="F12">
-        <v>70.29530889484877</v>
+        <v>31.70605826943533</v>
       </c>
       <c r="G12">
-        <v>1.842848838723628</v>
+        <v>42.4663902587649</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.76583032196154</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.849121950700801</v>
+        <v>6.502348788597098</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.81062401902954</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.462734462192355</v>
       </c>
       <c r="M12">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>13.47503738877436</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.152641249849395</v>
+        <v>17.18023248953755</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>16.86054382543498</v>
+        <v>4.737554043818678</v>
       </c>
       <c r="E13">
-        <v>17.90388669225514</v>
+        <v>8.25811544918526</v>
       </c>
       <c r="F13">
-        <v>70.29530889484877</v>
+        <v>31.66776440784646</v>
       </c>
       <c r="G13">
-        <v>1.842848838723628</v>
+        <v>42.39783318436572</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.75865210110036</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.849121950700801</v>
+        <v>6.504923936844635</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.76227943340169</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.440285871904631</v>
       </c>
       <c r="M13">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>13.48905962435743</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.152641249849395</v>
+        <v>17.05699346970671</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>16.86054382543498</v>
+        <v>4.727458160201088</v>
       </c>
       <c r="E14">
-        <v>17.90388669225514</v>
+        <v>8.263758185201585</v>
       </c>
       <c r="F14">
-        <v>70.29530889484877</v>
+        <v>31.54339364291542</v>
       </c>
       <c r="G14">
-        <v>1.842848838723628</v>
+        <v>42.17480315736972</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.73550825190385</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.849121950700801</v>
+        <v>6.513344995037842</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.60387806993097</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.366742174508921</v>
       </c>
       <c r="M14">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>13.534844064865</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.152641249849395</v>
+        <v>16.98125873224458</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>16.86054382543498</v>
+        <v>4.721293801635592</v>
       </c>
       <c r="E15">
-        <v>17.90388669225514</v>
+        <v>8.267258986060867</v>
       </c>
       <c r="F15">
-        <v>70.29530889484877</v>
+        <v>31.46760754288949</v>
       </c>
       <c r="G15">
-        <v>1.842848838723628</v>
+        <v>42.03861412131359</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.72153513442668</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.849121950700801</v>
+        <v>6.518520813622248</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.50628326485333</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.323269647334675</v>
       </c>
       <c r="M15">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>13.56293106466112</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.152641249849395</v>
+        <v>16.54352026926754</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>16.86054382543498</v>
+        <v>4.686269154796529</v>
       </c>
       <c r="E16">
-        <v>17.90388669225514</v>
+        <v>8.287994582885586</v>
       </c>
       <c r="F16">
-        <v>70.29530889484877</v>
+        <v>31.03934625950019</v>
       </c>
       <c r="G16">
-        <v>1.842848838723628</v>
+        <v>41.26470607407015</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.64452710195359</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.849121950700801</v>
+        <v>6.548454326250781</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.93822250521037</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.126065712081147</v>
       </c>
       <c r="M16">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.72456277285413</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.152641249849395</v>
+        <v>16.27171879037181</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16.86054382543498</v>
+        <v>4.665050680526882</v>
       </c>
       <c r="E17">
-        <v>17.90388669225514</v>
+        <v>8.301308614304153</v>
       </c>
       <c r="F17">
-        <v>70.29530889484877</v>
+        <v>30.78200053041361</v>
       </c>
       <c r="G17">
-        <v>1.842848838723628</v>
+        <v>40.79582996995078</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.59996958678386</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.849121950700801</v>
+        <v>6.567063370393768</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.58183666462118</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.003881471716682</v>
       </c>
       <c r="M17">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.82434568633547</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.152641249849395</v>
+        <v>16.11421635522683</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>16.86054382543498</v>
+        <v>4.652944792402249</v>
       </c>
       <c r="E18">
-        <v>17.90388669225514</v>
+        <v>8.309181535471541</v>
       </c>
       <c r="F18">
-        <v>70.29530889484877</v>
+        <v>30.63595538222895</v>
       </c>
       <c r="G18">
-        <v>1.842848838723628</v>
+        <v>40.52833572043244</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.57530733982581</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.849121950700801</v>
+        <v>6.577858003939223</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.37392676945252</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.933175464184179</v>
       </c>
       <c r="M18">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.88197781088476</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.152641249849395</v>
+        <v>16.06069097486704</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>16.86054382543498</v>
+        <v>4.648862849550554</v>
       </c>
       <c r="E19">
-        <v>17.90388669225514</v>
+        <v>8.311883827121184</v>
       </c>
       <c r="F19">
-        <v>70.29530889484877</v>
+        <v>30.58684562371859</v>
       </c>
       <c r="G19">
-        <v>1.842848838723628</v>
+        <v>40.43814569961911</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.5671211080682</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.849121950700801</v>
+        <v>6.581528627850826</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.30302732088975</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.909163443211571</v>
       </c>
       <c r="M19">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13.90153307334586</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.152641249849395</v>
+        <v>16.30077426835778</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>16.86054382543498</v>
+        <v>4.667299237052363</v>
       </c>
       <c r="E20">
-        <v>17.90388669225514</v>
+        <v>8.299868990182308</v>
       </c>
       <c r="F20">
-        <v>70.29530889484877</v>
+        <v>30.80919112114689</v>
       </c>
       <c r="G20">
-        <v>1.842848838723628</v>
+        <v>40.84551650170724</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.60461236596182</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.849121950700801</v>
+        <v>6.565072986225716</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.62007687874421</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.016932922019651</v>
       </c>
       <c r="M20">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.81369902867685</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.152641249849395</v>
+        <v>17.09324341770044</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>16.86054382543498</v>
+        <v>4.730419466823007</v>
       </c>
       <c r="E21">
-        <v>17.90388669225514</v>
+        <v>8.262091492491066</v>
       </c>
       <c r="F21">
-        <v>70.29530889484877</v>
+        <v>31.57984209511487</v>
       </c>
       <c r="G21">
-        <v>1.842848838723628</v>
+        <v>42.24022437466324</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.74226370924931</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.849121950700801</v>
+        <v>6.510867847095622</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.65052291288013</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.388397286564091</v>
       </c>
       <c r="M21">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13.52138721735124</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.152641249849395</v>
+        <v>17.60017548951774</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.86054382543498</v>
+        <v>4.772551889765546</v>
       </c>
       <c r="E22">
-        <v>17.90388669225514</v>
+        <v>8.239383406796348</v>
       </c>
       <c r="F22">
-        <v>70.29530889484877</v>
+        <v>32.10115878835457</v>
       </c>
       <c r="G22">
-        <v>1.842848838723628</v>
+        <v>43.17075881715614</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.84126471941661</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.849121950700801</v>
+        <v>6.476235202030487</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.29843037206717</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.689317214210012</v>
       </c>
       <c r="M22">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>13.33228095327578</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.152641249849395</v>
+        <v>17.33064579479704</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16.86054382543498</v>
+        <v>4.749984222214835</v>
       </c>
       <c r="E23">
-        <v>17.90388669225514</v>
+        <v>8.251318388774664</v>
       </c>
       <c r="F23">
-        <v>70.29530889484877</v>
+        <v>31.82130238501722</v>
       </c>
       <c r="G23">
-        <v>1.842848838723628</v>
+        <v>42.67239504034963</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.78757789897853</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.849121950700801</v>
+        <v>6.494647595398533</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.95494196224968</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.529755607772032</v>
       </c>
       <c r="M23">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>13.43304311348215</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.152641249849395</v>
+        <v>16.28764214252565</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>16.86054382543498</v>
+        <v>4.666282375315508</v>
       </c>
       <c r="E24">
-        <v>17.90388669225514</v>
+        <v>8.300519164361745</v>
       </c>
       <c r="F24">
-        <v>70.29530889484877</v>
+        <v>30.79689231802244</v>
       </c>
       <c r="G24">
-        <v>1.842848838723628</v>
+        <v>40.82304677051813</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.60251039737959</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.849121950700801</v>
+        <v>6.565972539540317</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.60279788672674</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.011033792813137</v>
       </c>
       <c r="M24">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.81851155316266</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.152641249849395</v>
+        <v>15.11845278544176</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.86054382543498</v>
+        <v>4.579762395473478</v>
       </c>
       <c r="E25">
-        <v>17.90388669225514</v>
+        <v>8.361780494485965</v>
       </c>
       <c r="F25">
-        <v>70.29530889484877</v>
+        <v>29.76730227574332</v>
       </c>
       <c r="G25">
-        <v>1.842848838723628</v>
+        <v>38.91243675077541</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.43955945645786</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.849121950700801</v>
+        <v>6.646405795052298</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.03216214641773</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.487937771806795</v>
       </c>
       <c r="M25">
-        <v>71.7285690269898</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.24357168196615</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.22401402240766</v>
+        <v>17.92153576870311</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.519292926485281</v>
+        <v>7.95272158466683</v>
       </c>
       <c r="E2">
-        <v>8.413625810653063</v>
+        <v>14.02384515229066</v>
       </c>
       <c r="F2">
-        <v>29.07339736048272</v>
+        <v>40.9586823234696</v>
       </c>
       <c r="G2">
-        <v>37.58123001863068</v>
+        <v>47.99626456003916</v>
       </c>
       <c r="H2">
-        <v>12.34870952986843</v>
+        <v>19.06427011945147</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.708746840459677</v>
+        <v>11.03101332699818</v>
       </c>
       <c r="K2">
-        <v>13.77661978422209</v>
+        <v>12.60783656865077</v>
       </c>
       <c r="L2">
-        <v>7.090970194747764</v>
+        <v>10.0978393148101</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.56558877694552</v>
+        <v>22.24426485161215</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.59997096400688</v>
+        <v>17.83787645489113</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.480339248587224</v>
+        <v>7.957751643941527</v>
       </c>
       <c r="E3">
-        <v>8.452831993019169</v>
+        <v>14.04725200182612</v>
       </c>
       <c r="F3">
-        <v>28.64269608136255</v>
+        <v>40.99544296408094</v>
       </c>
       <c r="G3">
-        <v>36.72795650367434</v>
+        <v>47.97452590258293</v>
       </c>
       <c r="H3">
-        <v>12.30407785322878</v>
+        <v>19.10308792969903</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.752995064269546</v>
+        <v>11.04750559117189</v>
       </c>
       <c r="K3">
-        <v>12.86272885377268</v>
+        <v>12.4158431603883</v>
       </c>
       <c r="L3">
-        <v>6.815961690391302</v>
+        <v>10.07189754898118</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.78997643173121</v>
+        <v>22.30958952790314</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.20929580727821</v>
+        <v>17.78990763820669</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.457426507077009</v>
+        <v>7.961457417707553</v>
       </c>
       <c r="E4">
-        <v>8.478872767603908</v>
+        <v>14.06260893708682</v>
       </c>
       <c r="F4">
-        <v>28.39753005156204</v>
+        <v>41.02653034269415</v>
       </c>
       <c r="G4">
-        <v>36.22871472088214</v>
+        <v>47.97340045154926</v>
       </c>
       <c r="H4">
-        <v>12.28461194449058</v>
+        <v>19.13004070740132</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.781166985661521</v>
+        <v>11.05818960207918</v>
       </c>
       <c r="K4">
-        <v>12.27017674706766</v>
+        <v>12.29932382132781</v>
       </c>
       <c r="L4">
-        <v>6.644729786996882</v>
+        <v>10.05759489407683</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.93094658862897</v>
+        <v>22.35160290079289</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.04843360444483</v>
+        <v>17.77123036132359</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.448343130471636</v>
+        <v>7.963123220583837</v>
       </c>
       <c r="E5">
-        <v>8.489973986581511</v>
+        <v>14.06911526436805</v>
       </c>
       <c r="F5">
-        <v>28.30243001098049</v>
+        <v>41.04133813750347</v>
       </c>
       <c r="G5">
-        <v>36.03154817729477</v>
+        <v>47.97601531620174</v>
       </c>
       <c r="H5">
-        <v>12.27861318063925</v>
+        <v>19.14180765445063</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.792901981948905</v>
+        <v>11.06268404714015</v>
       </c>
       <c r="K5">
-        <v>12.02076199372053</v>
+        <v>12.25224605248902</v>
       </c>
       <c r="L5">
-        <v>6.574452740933823</v>
+        <v>10.05217937427027</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.98921883240515</v>
+        <v>22.36920370135328</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.02162966402088</v>
+        <v>17.76818202542675</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.446850197754281</v>
+        <v>7.963409240830566</v>
       </c>
       <c r="E6">
-        <v>8.491846740890658</v>
+        <v>14.07021064523095</v>
       </c>
       <c r="F6">
-        <v>28.28692756819386</v>
+        <v>41.04392610281723</v>
       </c>
       <c r="G6">
-        <v>35.99918985861908</v>
+        <v>47.97663510516937</v>
       </c>
       <c r="H6">
-        <v>12.27773204599953</v>
+        <v>19.14380884486124</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.79486602287396</v>
+        <v>11.06343885105633</v>
       </c>
       <c r="K6">
-        <v>11.97886582360462</v>
+        <v>12.24445506335595</v>
       </c>
       <c r="L6">
-        <v>6.56275626583487</v>
+        <v>10.05130518519216</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.99894540603021</v>
+        <v>22.37215533042301</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.20713275465933</v>
+        <v>17.78965220557328</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.457302976718125</v>
+        <v>7.961479252410178</v>
       </c>
       <c r="E7">
-        <v>8.479020507935081</v>
+        <v>14.06269567777847</v>
       </c>
       <c r="F7">
-        <v>28.39622810074647</v>
+        <v>41.02672138660396</v>
       </c>
       <c r="G7">
-        <v>36.22603015666462</v>
+        <v>47.97342327358406</v>
       </c>
       <c r="H7">
-        <v>12.28452329631339</v>
+        <v>19.13019622932594</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.781324213440845</v>
+        <v>11.05824964583815</v>
       </c>
       <c r="K7">
-        <v>12.26684527602239</v>
+        <v>12.29868719408386</v>
       </c>
       <c r="L7">
-        <v>6.643783886949972</v>
+        <v>10.05752018135131</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.93172909603414</v>
+        <v>22.35183832610022</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.01053113455336</v>
+        <v>17.89199456642469</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.505653739360891</v>
+        <v>7.954328098411942</v>
       </c>
       <c r="E8">
-        <v>8.426732215854036</v>
+        <v>14.0317117244755</v>
       </c>
       <c r="F8">
-        <v>28.9208666680303</v>
+        <v>40.96958885181999</v>
       </c>
       <c r="G8">
-        <v>37.28195026603093</v>
+        <v>47.98623307276193</v>
       </c>
       <c r="H8">
-        <v>12.33163569610453</v>
+        <v>19.07700686125317</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.723796855588521</v>
+        <v>11.03658434371705</v>
       </c>
       <c r="K8">
-        <v>13.46800284046944</v>
+        <v>12.54139080656237</v>
       </c>
       <c r="L8">
-        <v>6.996696173783869</v>
+        <v>10.08855976186363</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.64230814995907</v>
+        <v>22.26639445799383</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.5178546107822</v>
+        <v>18.11890467868234</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.608404923169354</v>
+        <v>7.945183203290615</v>
       </c>
       <c r="E9">
-        <v>8.340078596868345</v>
+        <v>13.97874317855493</v>
       </c>
       <c r="F9">
-        <v>30.10410378516459</v>
+        <v>40.92518714382243</v>
       </c>
       <c r="G9">
-        <v>39.54452162204342</v>
+        <v>48.10823452803359</v>
       </c>
       <c r="H9">
-        <v>12.489762429799</v>
+        <v>18.99747571056804</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.618834573113953</v>
+        <v>10.99850613107555</v>
       </c>
       <c r="K9">
-        <v>15.57645768421275</v>
+        <v>13.02546221848913</v>
       </c>
       <c r="L9">
-        <v>7.66613768726909</v>
+        <v>10.16213169896408</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.09905400593457</v>
+        <v>22.11388457971955</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.57437400730343</v>
+        <v>18.30052916089852</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.688703669310851</v>
+        <v>7.941412470949386</v>
       </c>
       <c r="E10">
-        <v>8.28650471466908</v>
+        <v>13.94454251924895</v>
       </c>
       <c r="F10">
-        <v>31.06897882110755</v>
+        <v>40.93384167920379</v>
       </c>
       <c r="G10">
-        <v>41.31850303079769</v>
+        <v>48.25666866617829</v>
       </c>
       <c r="H10">
-        <v>12.64974380989193</v>
+        <v>18.95418354998174</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.546343200216877</v>
+        <v>10.97319217995929</v>
       </c>
       <c r="K10">
-        <v>16.97849377335344</v>
+        <v>13.38247868983951</v>
       </c>
       <c r="L10">
-        <v>8.139948594393491</v>
+        <v>10.22364706790051</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.71320865822699</v>
+        <v>22.01092180400775</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.04252529232278</v>
+        <v>18.38614624789535</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.726278180518329</v>
+        <v>7.940331484264994</v>
       </c>
       <c r="E11">
-        <v>8.264425014663344</v>
+        <v>13.93000042783932</v>
       </c>
       <c r="F11">
-        <v>31.52887762522021</v>
+        <v>40.94673413625112</v>
       </c>
       <c r="G11">
-        <v>42.14873450067866</v>
+        <v>48.33685981608835</v>
       </c>
       <c r="H11">
-        <v>12.73282415359888</v>
+        <v>18.93778244880144</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.514333719767433</v>
+        <v>10.96224900756895</v>
       </c>
       <c r="K11">
-        <v>17.58524877708172</v>
+        <v>13.5444527820176</v>
       </c>
       <c r="L11">
-        <v>8.358093776304964</v>
+        <v>10.25318555477152</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.54021260746082</v>
+        <v>21.96603609292938</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.21792257455193</v>
+        <v>18.41897587446395</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.740657637466597</v>
+        <v>7.940012851673449</v>
       </c>
       <c r="E12">
-        <v>8.256403012121284</v>
+        <v>13.92463925553907</v>
       </c>
       <c r="F12">
-        <v>31.70605826943533</v>
+        <v>40.95290168902579</v>
       </c>
       <c r="G12">
-        <v>42.4663902587649</v>
+        <v>48.36903506457298</v>
       </c>
       <c r="H12">
-        <v>12.76583032196154</v>
+        <v>18.93204560127768</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.502348788597098</v>
+        <v>10.95818700960966</v>
       </c>
       <c r="K12">
-        <v>17.81062401902954</v>
+        <v>13.605666244959</v>
       </c>
       <c r="L12">
-        <v>8.462734462192355</v>
+        <v>10.26458844705926</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.47503738877436</v>
+        <v>21.94931848469826</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.18023248953755</v>
+        <v>18.41188763193655</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.737554043818678</v>
+        <v>7.940077448542851</v>
       </c>
       <c r="E13">
-        <v>8.25811544918526</v>
+        <v>13.92578741201146</v>
       </c>
       <c r="F13">
-        <v>31.66776440784646</v>
+        <v>40.95151627175021</v>
       </c>
       <c r="G13">
-        <v>42.39783318436572</v>
+        <v>48.36202534276461</v>
       </c>
       <c r="H13">
-        <v>12.75865210110036</v>
+        <v>18.93326005216971</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.504923936844635</v>
+        <v>10.95905819457649</v>
       </c>
       <c r="K13">
-        <v>17.76227943340169</v>
+        <v>13.59248921796818</v>
       </c>
       <c r="L13">
-        <v>8.440285871904631</v>
+        <v>10.2621230682522</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.48905962435743</v>
+        <v>21.95290650186246</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.05699346970671</v>
+        <v>18.38883910896412</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.727458160201088</v>
+        <v>7.940303455060668</v>
       </c>
       <c r="E14">
-        <v>8.263758185201585</v>
+        <v>13.92955644568466</v>
       </c>
       <c r="F14">
-        <v>31.54339364291542</v>
+        <v>40.94721579857294</v>
       </c>
       <c r="G14">
-        <v>42.17480315736972</v>
+        <v>48.33947072880612</v>
       </c>
       <c r="H14">
-        <v>12.73550825190385</v>
+        <v>18.93730097542981</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.513344995037842</v>
+        <v>10.9619131842549</v>
       </c>
       <c r="K14">
-        <v>17.60387806993097</v>
+        <v>13.54949164449878</v>
       </c>
       <c r="L14">
-        <v>8.366742174508921</v>
+        <v>10.25411935934822</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.534844064865</v>
+        <v>21.96465512739727</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.98125873224458</v>
+        <v>18.37477371839542</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.721293801635592</v>
+        <v>7.940453689017973</v>
       </c>
       <c r="E15">
-        <v>8.267258986060867</v>
+        <v>13.93188403481466</v>
       </c>
       <c r="F15">
-        <v>31.46760754288949</v>
+        <v>40.94474895474223</v>
       </c>
       <c r="G15">
-        <v>42.03861412131359</v>
+        <v>48.32589048423108</v>
       </c>
       <c r="H15">
-        <v>12.72153513442668</v>
+        <v>18.93983788273889</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.518520813622248</v>
+        <v>10.96367260911806</v>
       </c>
       <c r="K15">
-        <v>17.50628326485333</v>
+        <v>13.52313667376939</v>
       </c>
       <c r="L15">
-        <v>8.323269647334675</v>
+        <v>10.24924496542565</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.56293106466112</v>
+        <v>21.97188788305216</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.54352026926754</v>
+        <v>18.29499225383377</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.686269154796529</v>
+        <v>7.941495837723436</v>
       </c>
       <c r="E16">
-        <v>8.287994582885586</v>
+        <v>13.9455132807042</v>
       </c>
       <c r="F16">
-        <v>31.03934625950019</v>
+        <v>40.93317915559005</v>
       </c>
       <c r="G16">
-        <v>41.26470607407015</v>
+        <v>48.25168183438438</v>
       </c>
       <c r="H16">
-        <v>12.64452710195359</v>
+        <v>18.95532169541816</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.548454326250781</v>
+        <v>10.97391882774705</v>
       </c>
       <c r="K16">
-        <v>16.93822250521037</v>
+        <v>13.37187937058289</v>
       </c>
       <c r="L16">
-        <v>8.126065712081147</v>
+        <v>10.22174741572535</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.72456277285413</v>
+        <v>22.0138943836722</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.27171879037181</v>
+        <v>18.24680032787457</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.665050680526882</v>
+        <v>7.942297277117848</v>
       </c>
       <c r="E17">
-        <v>8.301308614304153</v>
+        <v>13.9541342420781</v>
       </c>
       <c r="F17">
-        <v>30.78200053041361</v>
+        <v>40.92837380142349</v>
       </c>
       <c r="G17">
-        <v>40.79582996995078</v>
+        <v>48.20939322540021</v>
       </c>
       <c r="H17">
-        <v>12.59996958678386</v>
+        <v>18.96566417843442</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.567063370393768</v>
+        <v>10.98035087469431</v>
       </c>
       <c r="K17">
-        <v>16.58183666462118</v>
+        <v>13.27893318844977</v>
       </c>
       <c r="L17">
-        <v>8.003881471716682</v>
+        <v>10.20527241753216</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.82434568633547</v>
+        <v>22.04016329553357</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.11421635522683</v>
+        <v>18.2193649172132</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.652944792402249</v>
+        <v>7.942817981716391</v>
       </c>
       <c r="E18">
-        <v>8.309181535471541</v>
+        <v>13.95918844716856</v>
       </c>
       <c r="F18">
-        <v>30.63595538222895</v>
+        <v>40.92645301604262</v>
       </c>
       <c r="G18">
-        <v>40.52833572043244</v>
+        <v>48.18626320783502</v>
       </c>
       <c r="H18">
-        <v>12.57530733982581</v>
+        <v>18.97192280974778</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.577858003939223</v>
+        <v>10.98410430342496</v>
       </c>
       <c r="K18">
-        <v>16.37392676945252</v>
+        <v>13.22543557985948</v>
       </c>
       <c r="L18">
-        <v>7.933175464184179</v>
+        <v>10.19594317722611</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.88197781088476</v>
+        <v>22.05545633144744</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.06069097486704</v>
+        <v>18.21012508894536</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.648862849550554</v>
+        <v>7.943004558508966</v>
       </c>
       <c r="E19">
-        <v>8.311883827121184</v>
+        <v>13.96091615824458</v>
       </c>
       <c r="F19">
-        <v>30.58684562371859</v>
+        <v>40.9259475350914</v>
       </c>
       <c r="G19">
-        <v>40.43814569961911</v>
+        <v>48.17863708505478</v>
       </c>
       <c r="H19">
-        <v>12.5671211080682</v>
+        <v>18.97409508787757</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.581528627850826</v>
+        <v>10.98538441543231</v>
       </c>
       <c r="K19">
-        <v>16.30302732088975</v>
+        <v>13.2073176478506</v>
       </c>
       <c r="L19">
-        <v>7.909163443211571</v>
+        <v>10.19280984648737</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.90153307334586</v>
+        <v>22.06066590251687</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.30077426835778</v>
+        <v>18.25190127925453</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.667299237052363</v>
+        <v>7.942205783502529</v>
       </c>
       <c r="E20">
-        <v>8.299868990182308</v>
+        <v>13.95320662955892</v>
       </c>
       <c r="F20">
-        <v>30.80919112114689</v>
+        <v>40.92879809299063</v>
       </c>
       <c r="G20">
-        <v>40.84551650170724</v>
+        <v>48.21377150760836</v>
       </c>
       <c r="H20">
-        <v>12.60461236596182</v>
+        <v>18.96453112579226</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.565072986225716</v>
+        <v>10.97966059790756</v>
       </c>
       <c r="K20">
-        <v>16.62007687874421</v>
+        <v>13.28883178364419</v>
       </c>
       <c r="L20">
-        <v>8.016932922019651</v>
+        <v>10.20701106642128</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.81369902867685</v>
+        <v>22.03734790525511</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.09324341770044</v>
+        <v>18.39559811981386</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.730419466823007</v>
+        <v>7.940234613601116</v>
       </c>
       <c r="E21">
-        <v>8.262091492491066</v>
+        <v>13.9284454414304</v>
       </c>
       <c r="F21">
-        <v>31.57984209511487</v>
+        <v>40.94844408784216</v>
       </c>
       <c r="G21">
-        <v>42.24022437466324</v>
+        <v>48.34604659585532</v>
       </c>
       <c r="H21">
-        <v>12.74226370924931</v>
+        <v>18.93610119427726</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.510867847095622</v>
+        <v>10.96107238340264</v>
       </c>
       <c r="K21">
-        <v>17.65052291288013</v>
+        <v>13.56212487022234</v>
       </c>
       <c r="L21">
-        <v>8.388397286564091</v>
+        <v>10.25646439639121</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.52138721735124</v>
+        <v>21.96119669105963</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.60017548951774</v>
+        <v>18.49188131493523</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.772551889765546</v>
+        <v>7.939474846154032</v>
       </c>
       <c r="E22">
-        <v>8.239383406796348</v>
+        <v>13.9131110290568</v>
       </c>
       <c r="F22">
-        <v>32.10115878835457</v>
+        <v>40.96877479835422</v>
       </c>
       <c r="G22">
-        <v>43.17075881715614</v>
+        <v>48.44303026253734</v>
       </c>
       <c r="H22">
-        <v>12.84126471941661</v>
+        <v>18.92028291749765</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.476235202030487</v>
+        <v>10.94940138348613</v>
       </c>
       <c r="K22">
-        <v>18.29843037206717</v>
+        <v>13.73999671927868</v>
       </c>
       <c r="L22">
-        <v>8.689317214210012</v>
+        <v>10.29004853959804</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.33228095327578</v>
+        <v>21.91305688566331</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.33064579479704</v>
+        <v>18.44028396972775</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.749984222214835</v>
+        <v>7.93983215949824</v>
       </c>
       <c r="E23">
-        <v>8.251318388774664</v>
+        <v>13.92121782110995</v>
       </c>
       <c r="F23">
-        <v>31.82130238501722</v>
+        <v>40.95723949984831</v>
       </c>
       <c r="G23">
-        <v>42.67239504034963</v>
+        <v>48.39030926163675</v>
       </c>
       <c r="H23">
-        <v>12.78757789897853</v>
+        <v>18.92847257017386</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.494647595398533</v>
+        <v>10.95558684109092</v>
       </c>
       <c r="K23">
-        <v>17.95494196224968</v>
+        <v>13.64515026113748</v>
       </c>
       <c r="L23">
-        <v>8.529755607772032</v>
+        <v>10.27201058217687</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.43304311348215</v>
+        <v>21.93860128767669</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.28764214252565</v>
+        <v>18.24959429400571</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.666282375315508</v>
+        <v>7.942246961023305</v>
       </c>
       <c r="E24">
-        <v>8.300519164361745</v>
+        <v>13.95362569821291</v>
       </c>
       <c r="F24">
-        <v>30.79689231802244</v>
+        <v>40.92860364815329</v>
       </c>
       <c r="G24">
-        <v>40.82304677051813</v>
+        <v>48.21178840249792</v>
       </c>
       <c r="H24">
-        <v>12.60251039737959</v>
+        <v>18.96504240515076</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.565972539540317</v>
+        <v>10.97997249895812</v>
       </c>
       <c r="K24">
-        <v>16.60279788672674</v>
+        <v>13.28435681603493</v>
       </c>
       <c r="L24">
-        <v>8.011033792813137</v>
+        <v>10.2062245790468</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.81851155316266</v>
+        <v>22.03862014909327</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.11845278544176</v>
+        <v>18.05481927349198</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.579762395473478</v>
+        <v>7.947137507365648</v>
       </c>
       <c r="E25">
-        <v>8.361780494485965</v>
+        <v>13.99224205736835</v>
       </c>
       <c r="F25">
-        <v>29.76730227574332</v>
+        <v>40.92995025683437</v>
       </c>
       <c r="G25">
-        <v>38.91243675077541</v>
+        <v>48.06487598112221</v>
       </c>
       <c r="H25">
-        <v>12.43955945645786</v>
+        <v>19.01633468151217</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.646405795052298</v>
+        <v>11.00833802635701</v>
       </c>
       <c r="K25">
-        <v>15.03216214641773</v>
+        <v>12.89401160967998</v>
       </c>
       <c r="L25">
-        <v>7.487937771806795</v>
+        <v>10.14089637784772</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.24357168196615</v>
+        <v>22.15354075746097</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.92153576870311</v>
+        <v>14.22401402240768</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.95272158466683</v>
+        <v>4.519292926485175</v>
       </c>
       <c r="E2">
-        <v>14.02384515229066</v>
+        <v>8.41362581065313</v>
       </c>
       <c r="F2">
-        <v>40.9586823234696</v>
+        <v>29.07339736048275</v>
       </c>
       <c r="G2">
-        <v>47.99626456003916</v>
+        <v>37.58123001863078</v>
       </c>
       <c r="H2">
-        <v>19.06427011945147</v>
+        <v>12.34870952986843</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.03101332699818</v>
+        <v>6.708746840459742</v>
       </c>
       <c r="K2">
-        <v>12.60783656865077</v>
+        <v>13.77661978422207</v>
       </c>
       <c r="L2">
-        <v>10.0978393148101</v>
+        <v>7.090970194747803</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.24426485161215</v>
+        <v>14.56558877694555</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.83787645489113</v>
+        <v>13.59997096400682</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.957751643941527</v>
+        <v>4.480339248587107</v>
       </c>
       <c r="E3">
-        <v>14.04725200182612</v>
+        <v>8.452831993019101</v>
       </c>
       <c r="F3">
-        <v>40.99544296408094</v>
+        <v>28.64269608136253</v>
       </c>
       <c r="G3">
-        <v>47.97452590258293</v>
+        <v>36.72795650367438</v>
       </c>
       <c r="H3">
-        <v>19.10308792969903</v>
+        <v>12.30407785322877</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.04750559117189</v>
+        <v>6.752995064269545</v>
       </c>
       <c r="K3">
-        <v>12.4158431603883</v>
+        <v>12.86272885377266</v>
       </c>
       <c r="L3">
-        <v>10.07189754898118</v>
+        <v>6.815961690391351</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.30958952790314</v>
+        <v>14.78997643173121</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.78990763820669</v>
+        <v>13.20929580727828</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.961457417707553</v>
+        <v>4.457426507076888</v>
       </c>
       <c r="E4">
-        <v>14.06260893708682</v>
+        <v>8.478872767603912</v>
       </c>
       <c r="F4">
-        <v>41.02653034269415</v>
+        <v>28.397530051562</v>
       </c>
       <c r="G4">
-        <v>47.97340045154926</v>
+        <v>36.22871472088205</v>
       </c>
       <c r="H4">
-        <v>19.13004070740132</v>
+        <v>12.28461194449062</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.05818960207918</v>
+        <v>6.781166985661588</v>
       </c>
       <c r="K4">
-        <v>12.29932382132781</v>
+        <v>12.27017674706766</v>
       </c>
       <c r="L4">
-        <v>10.05759489407683</v>
+        <v>6.644729786996805</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.35160290079289</v>
+        <v>14.93094658862897</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.77123036132359</v>
+        <v>13.04843360444484</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.963123220583837</v>
+        <v>4.448343130471638</v>
       </c>
       <c r="E5">
-        <v>14.06911526436805</v>
+        <v>8.489973986581575</v>
       </c>
       <c r="F5">
-        <v>41.04133813750347</v>
+        <v>28.30243001098059</v>
       </c>
       <c r="G5">
-        <v>47.97601531620174</v>
+        <v>36.03154817729492</v>
       </c>
       <c r="H5">
-        <v>19.14180765445063</v>
+        <v>12.27861318063925</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.06268404714015</v>
+        <v>6.792901981948971</v>
       </c>
       <c r="K5">
-        <v>12.25224605248902</v>
+        <v>12.02076199372054</v>
       </c>
       <c r="L5">
-        <v>10.05217937427027</v>
+        <v>6.574452740933869</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.36920370135328</v>
+        <v>14.98921883240518</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.76818202542675</v>
+        <v>13.02162966402092</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.963409240830566</v>
+        <v>4.446850197754159</v>
       </c>
       <c r="E6">
-        <v>14.07021064523095</v>
+        <v>8.491846740890532</v>
       </c>
       <c r="F6">
-        <v>41.04392610281723</v>
+        <v>28.28692756819378</v>
       </c>
       <c r="G6">
-        <v>47.97663510516937</v>
+        <v>35.999189858619</v>
       </c>
       <c r="H6">
-        <v>19.14380884486124</v>
+        <v>12.27773204599954</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.06343885105633</v>
+        <v>6.794866022873896</v>
       </c>
       <c r="K6">
-        <v>12.24445506335595</v>
+        <v>11.97886582360462</v>
       </c>
       <c r="L6">
-        <v>10.05130518519216</v>
+        <v>6.562756265834865</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.37215533042301</v>
+        <v>14.99894540603014</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.78965220557328</v>
+        <v>13.20713275465937</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.961479252410178</v>
+        <v>4.45730297671813</v>
       </c>
       <c r="E7">
-        <v>14.06269567777847</v>
+        <v>8.479020507935081</v>
       </c>
       <c r="F7">
-        <v>41.02672138660396</v>
+        <v>28.39622810074648</v>
       </c>
       <c r="G7">
-        <v>47.97342327358406</v>
+        <v>36.22603015666466</v>
       </c>
       <c r="H7">
-        <v>19.13019622932594</v>
+        <v>12.28452329631339</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.05824964583815</v>
+        <v>6.781324213440845</v>
       </c>
       <c r="K7">
-        <v>12.29868719408386</v>
+        <v>12.26684527602239</v>
       </c>
       <c r="L7">
-        <v>10.05752018135131</v>
+        <v>6.643783886949942</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.35183832610022</v>
+        <v>14.93172909603414</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.89199456642469</v>
+        <v>14.0105311345533</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.954328098411942</v>
+        <v>4.505653739361012</v>
       </c>
       <c r="E8">
-        <v>14.0317117244755</v>
+        <v>8.42673221585404</v>
       </c>
       <c r="F8">
-        <v>40.96958885181999</v>
+        <v>28.92086666803016</v>
       </c>
       <c r="G8">
-        <v>47.98623307276193</v>
+        <v>37.28195026603072</v>
       </c>
       <c r="H8">
-        <v>19.07700686125317</v>
+        <v>12.33163569610448</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.03658434371705</v>
+        <v>6.723796855588422</v>
       </c>
       <c r="K8">
-        <v>12.54139080656237</v>
+        <v>13.46800284046951</v>
       </c>
       <c r="L8">
-        <v>10.08855976186363</v>
+        <v>6.996696173783884</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.26639445799383</v>
+        <v>14.642308149959</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.11890467868234</v>
+        <v>15.51785461078224</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.945183203290615</v>
+        <v>4.608404923169398</v>
       </c>
       <c r="E9">
-        <v>13.97874317855493</v>
+        <v>8.340078596868404</v>
       </c>
       <c r="F9">
-        <v>40.92518714382243</v>
+        <v>30.10410378516458</v>
       </c>
       <c r="G9">
-        <v>48.10823452803359</v>
+        <v>39.54452162204353</v>
       </c>
       <c r="H9">
-        <v>18.99747571056804</v>
+        <v>12.48976242979899</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.99850613107555</v>
+        <v>6.618834573114022</v>
       </c>
       <c r="K9">
-        <v>13.02546221848913</v>
+        <v>15.57645768421273</v>
       </c>
       <c r="L9">
-        <v>10.16213169896408</v>
+        <v>7.666137687269091</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.11388457971955</v>
+        <v>14.09905400593459</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.30052916089852</v>
+        <v>16.57437400730342</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.941412470949386</v>
+        <v>4.688703669310952</v>
       </c>
       <c r="E10">
-        <v>13.94454251924895</v>
+        <v>8.286504714669327</v>
       </c>
       <c r="F10">
-        <v>40.93384167920379</v>
+        <v>31.06897882110759</v>
       </c>
       <c r="G10">
-        <v>48.25666866617829</v>
+        <v>41.31850303079773</v>
       </c>
       <c r="H10">
-        <v>18.95418354998174</v>
+        <v>12.64974380989193</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.97319217995929</v>
+        <v>6.546343200216974</v>
       </c>
       <c r="K10">
-        <v>13.38247868983951</v>
+        <v>16.97849377335342</v>
       </c>
       <c r="L10">
-        <v>10.22364706790051</v>
+        <v>8.139948594393505</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.01092180400775</v>
+        <v>13.71320865822702</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.38614624789535</v>
+        <v>17.04252529232278</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.940331484264994</v>
+        <v>4.726278180518264</v>
       </c>
       <c r="E11">
-        <v>13.93000042783932</v>
+        <v>8.264425014663217</v>
       </c>
       <c r="F11">
-        <v>40.94673413625112</v>
+        <v>31.5288776252202</v>
       </c>
       <c r="G11">
-        <v>48.33685981608835</v>
+        <v>42.1487345006787</v>
       </c>
       <c r="H11">
-        <v>18.93778244880144</v>
+        <v>12.73282415359886</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.96224900756895</v>
+        <v>6.514333719767304</v>
       </c>
       <c r="K11">
-        <v>13.5444527820176</v>
+        <v>17.58524877708174</v>
       </c>
       <c r="L11">
-        <v>10.25318555477152</v>
+        <v>8.358093776305008</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.96603609292938</v>
+        <v>13.54021260746073</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.41897587446395</v>
+        <v>17.2179225745519</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.940012851673449</v>
+        <v>4.740657637466492</v>
       </c>
       <c r="E12">
-        <v>13.92463925553907</v>
+        <v>8.256403012121348</v>
       </c>
       <c r="F12">
-        <v>40.95290168902579</v>
+        <v>31.70605826943522</v>
       </c>
       <c r="G12">
-        <v>48.36903506457298</v>
+        <v>42.4663902587648</v>
       </c>
       <c r="H12">
-        <v>18.93204560127768</v>
+        <v>12.76583032196154</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.95818700960966</v>
+        <v>6.502348788597198</v>
       </c>
       <c r="K12">
-        <v>13.605666244959</v>
+        <v>17.81062401902956</v>
       </c>
       <c r="L12">
-        <v>10.26458844705926</v>
+        <v>8.462734462192328</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.94931848469826</v>
+        <v>13.47503738877427</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.41188763193655</v>
+        <v>17.1802324895375</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.940077448542851</v>
+        <v>4.737554043818731</v>
       </c>
       <c r="E13">
-        <v>13.92578741201146</v>
+        <v>8.258115449185123</v>
       </c>
       <c r="F13">
-        <v>40.95151627175021</v>
+        <v>31.6677644078464</v>
       </c>
       <c r="G13">
-        <v>48.36202534276461</v>
+        <v>42.39783318436563</v>
       </c>
       <c r="H13">
-        <v>18.93326005216971</v>
+        <v>12.75865210110029</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.95905819457649</v>
+        <v>6.504923936844535</v>
       </c>
       <c r="K13">
-        <v>13.59248921796818</v>
+        <v>17.76227943340173</v>
       </c>
       <c r="L13">
-        <v>10.2621230682522</v>
+        <v>8.440285871904672</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.95290650186246</v>
+        <v>13.48905962435737</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.38883910896412</v>
+        <v>17.05699346970666</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.940303455060668</v>
+        <v>4.727458160201097</v>
       </c>
       <c r="E14">
-        <v>13.92955644568466</v>
+        <v>8.263758185201649</v>
       </c>
       <c r="F14">
-        <v>40.94721579857294</v>
+        <v>31.54339364291549</v>
       </c>
       <c r="G14">
-        <v>48.33947072880612</v>
+        <v>42.17480315736986</v>
       </c>
       <c r="H14">
-        <v>18.93730097542981</v>
+        <v>12.73550825190385</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.9619131842549</v>
+        <v>6.51334499503781</v>
       </c>
       <c r="K14">
-        <v>13.54949164449878</v>
+        <v>17.60387806993092</v>
       </c>
       <c r="L14">
-        <v>10.25411935934822</v>
+        <v>8.366742174508914</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.96465512739727</v>
+        <v>13.53484406486504</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.37477371839542</v>
+        <v>16.98125873224459</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.940453689017973</v>
+        <v>4.721293801635698</v>
       </c>
       <c r="E15">
-        <v>13.93188403481466</v>
+        <v>8.267258986060741</v>
       </c>
       <c r="F15">
-        <v>40.94474895474223</v>
+        <v>31.46760754288962</v>
       </c>
       <c r="G15">
-        <v>48.32589048423108</v>
+        <v>42.03861412131371</v>
       </c>
       <c r="H15">
-        <v>18.93983788273889</v>
+        <v>12.72153513442672</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.96367260911806</v>
+        <v>6.518520813622083</v>
       </c>
       <c r="K15">
-        <v>13.52313667376939</v>
+        <v>17.50628326485333</v>
       </c>
       <c r="L15">
-        <v>10.24924496542565</v>
+        <v>8.323269647334637</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.97188788305216</v>
+        <v>13.56293106466122</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.29499225383377</v>
+        <v>16.54352026926754</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.941495837723436</v>
+        <v>4.686269154796518</v>
       </c>
       <c r="E16">
-        <v>13.9455132807042</v>
+        <v>8.287994582885583</v>
       </c>
       <c r="F16">
-        <v>40.93317915559005</v>
+        <v>31.03934625950013</v>
       </c>
       <c r="G16">
-        <v>48.25168183438438</v>
+        <v>41.26470607407005</v>
       </c>
       <c r="H16">
-        <v>18.95532169541816</v>
+        <v>12.64452710195359</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.97391882774705</v>
+        <v>6.548454326250816</v>
       </c>
       <c r="K16">
-        <v>13.37187937058289</v>
+        <v>16.93822250521046</v>
       </c>
       <c r="L16">
-        <v>10.22174741572535</v>
+        <v>8.126065712081108</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.0138943836722</v>
+        <v>13.72456277285414</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.24680032787457</v>
+        <v>16.27171879037181</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.942297277117848</v>
+        <v>4.665050680526715</v>
       </c>
       <c r="E17">
-        <v>13.9541342420781</v>
+        <v>8.301308614304091</v>
       </c>
       <c r="F17">
-        <v>40.92837380142349</v>
+        <v>30.78200053041352</v>
       </c>
       <c r="G17">
-        <v>48.20939322540021</v>
+        <v>40.79582996995078</v>
       </c>
       <c r="H17">
-        <v>18.96566417843442</v>
+        <v>12.59996958678377</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.98035087469431</v>
+        <v>6.5670633703938</v>
       </c>
       <c r="K17">
-        <v>13.27893318844977</v>
+        <v>16.58183666462118</v>
       </c>
       <c r="L17">
-        <v>10.20527241753216</v>
+        <v>8.003881471716671</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.04016329553357</v>
+        <v>13.82434568633537</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.2193649172132</v>
+        <v>16.11421635522687</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.942817981716391</v>
+        <v>4.65294479240224</v>
       </c>
       <c r="E18">
-        <v>13.95918844716856</v>
+        <v>8.309181535471536</v>
       </c>
       <c r="F18">
-        <v>40.92645301604262</v>
+        <v>30.63595538222887</v>
       </c>
       <c r="G18">
-        <v>48.18626320783502</v>
+        <v>40.52833572043234</v>
       </c>
       <c r="H18">
-        <v>18.97192280974778</v>
+        <v>12.57530733982578</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.98410430342496</v>
+        <v>6.577858003939255</v>
       </c>
       <c r="K18">
-        <v>13.22543557985948</v>
+        <v>16.37392676945257</v>
       </c>
       <c r="L18">
-        <v>10.19594317722611</v>
+        <v>7.933175464184152</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.05545633144744</v>
+        <v>13.88197781088473</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.21012508894536</v>
+        <v>16.06069097486706</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.943004558508966</v>
+        <v>4.648862849550505</v>
       </c>
       <c r="E19">
-        <v>13.96091615824458</v>
+        <v>8.311883827121308</v>
       </c>
       <c r="F19">
-        <v>40.9259475350914</v>
+        <v>30.58684562371858</v>
       </c>
       <c r="G19">
-        <v>48.17863708505478</v>
+        <v>40.43814569961921</v>
       </c>
       <c r="H19">
-        <v>18.97409508787757</v>
+        <v>12.56712110806817</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.98538441543231</v>
+        <v>6.581528627850923</v>
       </c>
       <c r="K19">
-        <v>13.2073176478506</v>
+        <v>16.30302732088976</v>
       </c>
       <c r="L19">
-        <v>10.19280984648737</v>
+        <v>7.909163443211556</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.06066590251687</v>
+        <v>13.90153307334583</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.25190127925453</v>
+        <v>16.30077426835775</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.942205783502529</v>
+        <v>4.667299237052312</v>
       </c>
       <c r="E20">
-        <v>13.95320662955892</v>
+        <v>8.299868990182313</v>
       </c>
       <c r="F20">
-        <v>40.92879809299063</v>
+        <v>30.80919112114682</v>
       </c>
       <c r="G20">
-        <v>48.21377150760836</v>
+        <v>40.84551650170719</v>
       </c>
       <c r="H20">
-        <v>18.96453112579226</v>
+        <v>12.60461236596181</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.97966059790756</v>
+        <v>6.565072986225749</v>
       </c>
       <c r="K20">
-        <v>13.28883178364419</v>
+        <v>16.62007687874419</v>
       </c>
       <c r="L20">
-        <v>10.20701106642128</v>
+        <v>8.016932922019695</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.03734790525511</v>
+        <v>13.81369902867684</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.39559811981386</v>
+        <v>17.09324341770046</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.940234613601116</v>
+        <v>4.730419466822957</v>
       </c>
       <c r="E21">
-        <v>13.9284454414304</v>
+        <v>8.262091492491066</v>
       </c>
       <c r="F21">
-        <v>40.94844408784216</v>
+        <v>31.57984209511487</v>
       </c>
       <c r="G21">
-        <v>48.34604659585532</v>
+        <v>42.24022437466331</v>
       </c>
       <c r="H21">
-        <v>18.93610119427726</v>
+        <v>12.7422637092493</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.96107238340264</v>
+        <v>6.510867847095655</v>
       </c>
       <c r="K21">
-        <v>13.56212487022234</v>
+        <v>17.65052291288008</v>
       </c>
       <c r="L21">
-        <v>10.25646439639121</v>
+        <v>8.388397286564084</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.96119669105963</v>
+        <v>13.52138721735123</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.49188131493523</v>
+        <v>17.60017548951773</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.939474846154032</v>
+        <v>4.772551889765452</v>
       </c>
       <c r="E22">
-        <v>13.9131110290568</v>
+        <v>8.239383406796346</v>
       </c>
       <c r="F22">
-        <v>40.96877479835422</v>
+        <v>32.10115878835447</v>
       </c>
       <c r="G22">
-        <v>48.44303026253734</v>
+        <v>43.1707588171561</v>
       </c>
       <c r="H22">
-        <v>18.92028291749765</v>
+        <v>12.84126471941656</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.94940138348613</v>
+        <v>6.476235202030551</v>
       </c>
       <c r="K22">
-        <v>13.73999671927868</v>
+        <v>18.29843037206718</v>
       </c>
       <c r="L22">
-        <v>10.29004853959804</v>
+        <v>8.689317214209984</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.91305688566331</v>
+        <v>13.33228095327575</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.44028396972775</v>
+        <v>17.33064579479703</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.93983215949824</v>
+        <v>4.749984222214791</v>
       </c>
       <c r="E23">
-        <v>13.92121782110995</v>
+        <v>8.251318388774852</v>
       </c>
       <c r="F23">
-        <v>40.95723949984831</v>
+        <v>31.82130238501728</v>
       </c>
       <c r="G23">
-        <v>48.39030926163675</v>
+        <v>42.67239504034976</v>
       </c>
       <c r="H23">
-        <v>18.92847257017386</v>
+        <v>12.78757789897854</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.95558684109092</v>
+        <v>6.494647595398662</v>
       </c>
       <c r="K23">
-        <v>13.64515026113748</v>
+        <v>17.95494196224959</v>
       </c>
       <c r="L23">
-        <v>10.27201058217687</v>
+        <v>8.529755607771865</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.93860128767669</v>
+        <v>13.43304311348218</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.24959429400571</v>
+        <v>16.28764214252561</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.942246961023305</v>
+        <v>4.666282375315353</v>
       </c>
       <c r="E24">
-        <v>13.95362569821291</v>
+        <v>8.300519164361683</v>
       </c>
       <c r="F24">
-        <v>40.92860364815329</v>
+        <v>30.79689231802239</v>
       </c>
       <c r="G24">
-        <v>48.21178840249792</v>
+        <v>40.82304677051819</v>
       </c>
       <c r="H24">
-        <v>18.96504240515076</v>
+        <v>12.60251039737955</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.97997249895812</v>
+        <v>6.565972539540381</v>
       </c>
       <c r="K24">
-        <v>13.28435681603493</v>
+        <v>16.6027978867267</v>
       </c>
       <c r="L24">
-        <v>10.2062245790468</v>
+        <v>8.011033792813139</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.03862014909327</v>
+        <v>13.8185115531626</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.05481927349198</v>
+        <v>15.1184527854417</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.947137507365648</v>
+        <v>4.579762395473413</v>
       </c>
       <c r="E25">
-        <v>13.99224205736835</v>
+        <v>8.361780494485895</v>
       </c>
       <c r="F25">
-        <v>40.92995025683437</v>
+        <v>29.76730227574317</v>
       </c>
       <c r="G25">
-        <v>48.06487598112221</v>
+        <v>38.9124367507752</v>
       </c>
       <c r="H25">
-        <v>19.01633468151217</v>
+        <v>12.43955945645778</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.00833802635701</v>
+        <v>6.646405795052234</v>
       </c>
       <c r="K25">
-        <v>12.89401160967998</v>
+        <v>15.0321621464178</v>
       </c>
       <c r="L25">
-        <v>10.14089637784772</v>
+        <v>7.487937771806778</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.15354075746097</v>
+        <v>14.24357168196605</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.22401402240768</v>
+        <v>13.59050801883423</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.519292926485175</v>
+        <v>6.749393185298101</v>
       </c>
       <c r="E2">
-        <v>8.41362581065313</v>
+        <v>10.30957169329639</v>
       </c>
       <c r="F2">
-        <v>29.07339736048275</v>
+        <v>36.22804622236234</v>
       </c>
       <c r="G2">
-        <v>37.58123001863078</v>
+        <v>56.03440320663382</v>
       </c>
       <c r="H2">
-        <v>12.34870952986843</v>
+        <v>3.391885771051833</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.717495290671788</v>
       </c>
       <c r="J2">
-        <v>6.708746840459742</v>
+        <v>14.99361584591959</v>
       </c>
       <c r="K2">
-        <v>13.77661978422207</v>
+        <v>29.70554798304891</v>
       </c>
       <c r="L2">
-        <v>7.090970194747803</v>
+        <v>6.793924428090256</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.56558877694555</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>42.11701666567589</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.59997096400682</v>
+        <v>12.70562734174056</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.480339248587107</v>
+        <v>6.496371145944284</v>
       </c>
       <c r="E3">
-        <v>8.452831993019101</v>
+        <v>9.977995521850806</v>
       </c>
       <c r="F3">
-        <v>28.64269608136253</v>
+        <v>34.30115767366804</v>
       </c>
       <c r="G3">
-        <v>36.72795650367438</v>
+        <v>52.45564559491594</v>
       </c>
       <c r="H3">
-        <v>12.30407785322877</v>
+        <v>2.925041549161585</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.833223165917769</v>
       </c>
       <c r="J3">
-        <v>6.752995064269545</v>
+        <v>14.32299198414879</v>
       </c>
       <c r="K3">
-        <v>12.86272885377266</v>
+        <v>28.2035092851798</v>
       </c>
       <c r="L3">
-        <v>6.815961690391351</v>
+        <v>6.676338848057931</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.78997643173121</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>39.40124597345376</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.20929580727828</v>
+        <v>12.12801670369334</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.457426507076888</v>
+        <v>6.337315071365151</v>
       </c>
       <c r="E4">
-        <v>8.478872767603912</v>
+        <v>9.768244153200282</v>
       </c>
       <c r="F4">
-        <v>28.397530051562</v>
+        <v>33.09638963874864</v>
       </c>
       <c r="G4">
-        <v>36.22871472088205</v>
+        <v>50.18730605709877</v>
       </c>
       <c r="H4">
-        <v>12.28461194449062</v>
+        <v>2.632679220144947</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.905860707652221</v>
       </c>
       <c r="J4">
-        <v>6.781166985661588</v>
+        <v>13.90867376909702</v>
       </c>
       <c r="K4">
-        <v>12.27017674706766</v>
+        <v>27.26625650243288</v>
       </c>
       <c r="L4">
-        <v>6.644729786996805</v>
+        <v>6.601857755394577</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.93094658862897</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>37.64574629767724</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.04843360444484</v>
+        <v>11.87804490865797</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.448343130471638</v>
+        <v>6.272013177386506</v>
       </c>
       <c r="E5">
-        <v>8.489973986581575</v>
+        <v>9.682511440657445</v>
       </c>
       <c r="F5">
-        <v>28.30243001098059</v>
+        <v>32.59012510768983</v>
       </c>
       <c r="G5">
-        <v>36.03154817729492</v>
+        <v>49.23135194830412</v>
       </c>
       <c r="H5">
-        <v>12.27861318063925</v>
+        <v>2.51247298100024</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.938042219336603</v>
       </c>
       <c r="J5">
-        <v>6.792901981948971</v>
+        <v>13.73602861481954</v>
       </c>
       <c r="K5">
-        <v>12.02076199372054</v>
+        <v>26.92166655460688</v>
       </c>
       <c r="L5">
-        <v>6.574452740933869</v>
+        <v>6.570946239857273</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.98921883240518</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>36.93227487255938</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.02162966402092</v>
+        <v>11.8287633483264</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.446850197754159</v>
+        <v>6.261672138828284</v>
       </c>
       <c r="E6">
-        <v>8.491846740890532</v>
+        <v>9.669786551968485</v>
       </c>
       <c r="F6">
-        <v>28.28692756819378</v>
+        <v>32.49326083762245</v>
       </c>
       <c r="G6">
-        <v>35.999189858619</v>
+        <v>49.05435902240585</v>
       </c>
       <c r="H6">
-        <v>12.27773204599954</v>
+        <v>2.493003869117585</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.946200061428504</v>
       </c>
       <c r="J6">
-        <v>6.794866022873896</v>
+        <v>13.70330268404553</v>
       </c>
       <c r="K6">
-        <v>11.97886582360462</v>
+        <v>26.91411338249968</v>
       </c>
       <c r="L6">
-        <v>6.562756265834865</v>
+        <v>6.565817249246324</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.99894540603014</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>36.84189997145863</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.20713275465937</v>
+        <v>12.10538524346399</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.45730297671813</v>
+        <v>6.337952153790008</v>
       </c>
       <c r="E7">
-        <v>8.479020507935081</v>
+        <v>9.771427538169675</v>
       </c>
       <c r="F7">
-        <v>28.39622810074648</v>
+        <v>33.05618750324047</v>
       </c>
       <c r="G7">
-        <v>36.22603015666466</v>
+        <v>50.1287368293345</v>
       </c>
       <c r="H7">
-        <v>12.28452329631339</v>
+        <v>2.63268174397489</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.913591252734098</v>
       </c>
       <c r="J7">
-        <v>6.781324213440845</v>
+        <v>13.89554602544805</v>
       </c>
       <c r="K7">
-        <v>12.26684527602239</v>
+        <v>27.39578662260522</v>
       </c>
       <c r="L7">
-        <v>6.643783886949942</v>
+        <v>6.601563527219187</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.93172909603414</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>37.71458743808733</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.0105311345533</v>
+        <v>13.26906998487374</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.505653739361012</v>
+        <v>6.664839255318039</v>
       </c>
       <c r="E8">
-        <v>8.42673221585404</v>
+        <v>10.20199458570826</v>
       </c>
       <c r="F8">
-        <v>28.92086666803016</v>
+        <v>35.52749812706856</v>
       </c>
       <c r="G8">
-        <v>37.28195026603072</v>
+        <v>54.7602194885611</v>
       </c>
       <c r="H8">
-        <v>12.33163569610448</v>
+        <v>3.23424315771044</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.766083493490358</v>
       </c>
       <c r="J8">
-        <v>6.723796855588422</v>
+        <v>14.74964488920452</v>
       </c>
       <c r="K8">
-        <v>13.46800284046951</v>
+        <v>29.35971336951731</v>
       </c>
       <c r="L8">
-        <v>6.996696173783884</v>
+        <v>6.754046680976113</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.642308149959</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>41.29419726279409</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.51785461078224</v>
+        <v>15.31152176372409</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.608404923169398</v>
+        <v>7.274961363885446</v>
       </c>
       <c r="E9">
-        <v>8.340078596868404</v>
+        <v>10.99137105392465</v>
       </c>
       <c r="F9">
-        <v>30.10410378516458</v>
+        <v>40.24552148377508</v>
       </c>
       <c r="G9">
-        <v>39.54452162204353</v>
+        <v>63.34642688547945</v>
       </c>
       <c r="H9">
-        <v>12.48976242979899</v>
+        <v>4.370833356769033</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.477160102593186</v>
       </c>
       <c r="J9">
-        <v>6.618834573114022</v>
+        <v>16.41780303010337</v>
       </c>
       <c r="K9">
-        <v>15.57645768421273</v>
+        <v>32.85453144874666</v>
       </c>
       <c r="L9">
-        <v>7.666137687269091</v>
+        <v>7.03546066760387</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.09905400593459</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>47.49468929685273</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.57437400730342</v>
+        <v>16.67653085098561</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.688703669310952</v>
+        <v>7.737406525232918</v>
       </c>
       <c r="E10">
-        <v>8.286504714669327</v>
+        <v>11.64155511890531</v>
       </c>
       <c r="F10">
-        <v>31.06897882110759</v>
+        <v>43.25397679903767</v>
       </c>
       <c r="G10">
-        <v>41.31850303079773</v>
+        <v>68.84598342213795</v>
       </c>
       <c r="H10">
-        <v>12.64974380989193</v>
+        <v>5.163855989014083</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.275773915128524</v>
       </c>
       <c r="J10">
-        <v>6.546343200216974</v>
+        <v>17.51419959121627</v>
       </c>
       <c r="K10">
-        <v>16.97849377335342</v>
+        <v>35.5129331443428</v>
       </c>
       <c r="L10">
-        <v>8.139948594393505</v>
+        <v>7.269807183700496</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.71320865822702</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>51.52207987863468</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.04252529232278</v>
+        <v>17.52540595789831</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.726278180518264</v>
+        <v>8.204547496061423</v>
       </c>
       <c r="E11">
-        <v>8.264425014663217</v>
+        <v>12.87769167902928</v>
       </c>
       <c r="F11">
-        <v>31.5288776252202</v>
+        <v>41.73039635363285</v>
       </c>
       <c r="G11">
-        <v>42.1487345006787</v>
+        <v>67.3834849912524</v>
       </c>
       <c r="H11">
-        <v>12.73282415359886</v>
+        <v>5.683141549100506</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.202569380986991</v>
       </c>
       <c r="J11">
-        <v>6.514333719767304</v>
+        <v>17.07031172960042</v>
       </c>
       <c r="K11">
-        <v>17.58524877708174</v>
+        <v>37.9834040415316</v>
       </c>
       <c r="L11">
-        <v>8.358093776305008</v>
+        <v>7.793207922833492</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.54021260746073</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>52.14316374933692</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.2179225745519</v>
+        <v>17.99062575795958</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.740657637466492</v>
+        <v>8.51643403876642</v>
       </c>
       <c r="E12">
-        <v>8.256403012121348</v>
+        <v>13.92403754223735</v>
       </c>
       <c r="F12">
-        <v>31.70605826943522</v>
+        <v>39.81785834665089</v>
       </c>
       <c r="G12">
-        <v>42.4663902587648</v>
+        <v>65.01919616910745</v>
       </c>
       <c r="H12">
-        <v>12.76583032196154</v>
+        <v>6.409476770559558</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.169309882210468</v>
       </c>
       <c r="J12">
-        <v>6.502348788597198</v>
+        <v>16.46417161717609</v>
       </c>
       <c r="K12">
-        <v>17.81062401902956</v>
+        <v>39.35702505639092</v>
       </c>
       <c r="L12">
-        <v>8.462734462192328</v>
+        <v>8.305449288486919</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.47503738877427</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>51.73640511048006</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.1802324895375</v>
+        <v>18.18218366270265</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.737554043818731</v>
+        <v>8.732759988309086</v>
       </c>
       <c r="E13">
-        <v>8.258115449185123</v>
+        <v>14.88316199396453</v>
       </c>
       <c r="F13">
-        <v>31.6677644078464</v>
+        <v>37.38788652335261</v>
       </c>
       <c r="G13">
-        <v>42.39783318436563</v>
+        <v>61.66406474162795</v>
       </c>
       <c r="H13">
-        <v>12.75865210110029</v>
+        <v>7.255135328082751</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.176339490149756</v>
       </c>
       <c r="J13">
-        <v>6.504923936844535</v>
+        <v>15.66459330714265</v>
       </c>
       <c r="K13">
-        <v>17.76227943340173</v>
+        <v>40.17223423501952</v>
       </c>
       <c r="L13">
-        <v>8.440285871904672</v>
+        <v>8.823483314282935</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.48905962435737</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>50.59583969555844</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.05699346970666</v>
+        <v>18.19153995374625</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.727458160201097</v>
+        <v>8.844821326843759</v>
       </c>
       <c r="E14">
-        <v>8.263758185201649</v>
+        <v>15.53081940140611</v>
       </c>
       <c r="F14">
-        <v>31.54339364291549</v>
+        <v>35.41544297577228</v>
       </c>
       <c r="G14">
-        <v>42.17480315736986</v>
+        <v>58.81044237773521</v>
       </c>
       <c r="H14">
-        <v>12.73550825190385</v>
+        <v>7.916417127186214</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.201673011251133</v>
       </c>
       <c r="J14">
-        <v>6.51334499503781</v>
+        <v>15.00658914197466</v>
       </c>
       <c r="K14">
-        <v>17.60387806993092</v>
+        <v>40.53438907565989</v>
       </c>
       <c r="L14">
-        <v>8.366742174508914</v>
+        <v>9.196527520472001</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.53484406486504</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>49.46718242337983</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.98125873224459</v>
+        <v>18.12936296229264</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.721293801635698</v>
+        <v>8.850970634318804</v>
       </c>
       <c r="E15">
-        <v>8.267258986060741</v>
+        <v>15.65891542742345</v>
       </c>
       <c r="F15">
-        <v>31.46760754288962</v>
+        <v>34.81181024636248</v>
       </c>
       <c r="G15">
-        <v>42.03861412131371</v>
+        <v>57.88065979026733</v>
       </c>
       <c r="H15">
-        <v>12.72153513442672</v>
+        <v>8.05829879818474</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.219966016613164</v>
       </c>
       <c r="J15">
-        <v>6.518520813622083</v>
+        <v>14.80167127504951</v>
       </c>
       <c r="K15">
-        <v>17.50628326485333</v>
+        <v>40.54909548519736</v>
       </c>
       <c r="L15">
-        <v>8.323269647334637</v>
+        <v>9.276434214598577</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.56293106466122</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>49.05634120349453</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.54352026926754</v>
+        <v>17.5426856151273</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.686269154796518</v>
+        <v>8.623116872366797</v>
       </c>
       <c r="E16">
-        <v>8.287994582885583</v>
+        <v>15.2397107018026</v>
       </c>
       <c r="F16">
-        <v>31.03934625950013</v>
+        <v>33.84117101830095</v>
       </c>
       <c r="G16">
-        <v>41.26470607407005</v>
+        <v>55.90352304984761</v>
       </c>
       <c r="H16">
-        <v>12.64452710195359</v>
+        <v>7.675147601380121</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.309798955005656</v>
       </c>
       <c r="J16">
-        <v>6.548454326250816</v>
+        <v>14.44277657749413</v>
       </c>
       <c r="K16">
-        <v>16.93822250521046</v>
+        <v>39.40938729776801</v>
       </c>
       <c r="L16">
-        <v>8.126065712081108</v>
+        <v>9.082173680966827</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.72456277285414</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>47.5988033826051</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.27171879037181</v>
+        <v>17.07541919109208</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.665050680526715</v>
+        <v>8.383157582268561</v>
       </c>
       <c r="E17">
-        <v>8.301308614304091</v>
+        <v>14.54668692636295</v>
       </c>
       <c r="F17">
-        <v>30.78200053041352</v>
+        <v>34.19254893807855</v>
       </c>
       <c r="G17">
-        <v>40.79582996995078</v>
+        <v>56.00424349813421</v>
       </c>
       <c r="H17">
-        <v>12.59996958678377</v>
+        <v>6.968402139989827</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.365689325199562</v>
       </c>
       <c r="J17">
-        <v>6.5670633703938</v>
+        <v>14.53131994704946</v>
       </c>
       <c r="K17">
-        <v>16.58183666462118</v>
+        <v>38.32275600740209</v>
       </c>
       <c r="L17">
-        <v>8.003881471716671</v>
+        <v>8.721174996682725</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.82434568633537</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>47.09046395825532</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.11421635522687</v>
+        <v>16.67952363922121</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.65294479240224</v>
+        <v>8.110682379925679</v>
       </c>
       <c r="E18">
-        <v>8.309181535471536</v>
+        <v>13.57678519581137</v>
       </c>
       <c r="F18">
-        <v>30.63595538222887</v>
+        <v>35.73666175952798</v>
       </c>
       <c r="G18">
-        <v>40.52833572043234</v>
+        <v>57.90628298327846</v>
       </c>
       <c r="H18">
-        <v>12.57530733982578</v>
+        <v>5.991111346568139</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.390444539945897</v>
       </c>
       <c r="J18">
-        <v>6.577858003939255</v>
+        <v>15.01773689562564</v>
       </c>
       <c r="K18">
-        <v>16.37392676945257</v>
+        <v>37.06822603631893</v>
       </c>
       <c r="L18">
-        <v>7.933175464184152</v>
+        <v>8.211423372029646</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.88197781088473</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>47.30536382419685</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.06069097486706</v>
+        <v>16.34971519190412</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.648862849550505</v>
+        <v>7.847570898996572</v>
       </c>
       <c r="E19">
-        <v>8.311883827121308</v>
+        <v>12.55994678076808</v>
       </c>
       <c r="F19">
-        <v>30.58684562371858</v>
+        <v>38.04190275128801</v>
       </c>
       <c r="G19">
-        <v>40.43814569961921</v>
+        <v>61.0098881486832</v>
       </c>
       <c r="H19">
-        <v>12.56712110806817</v>
+        <v>5.123524356124647</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.402629694419733</v>
       </c>
       <c r="J19">
-        <v>6.581528627850923</v>
+        <v>15.76062540542014</v>
       </c>
       <c r="K19">
-        <v>16.30302732088976</v>
+        <v>36.0079704731689</v>
       </c>
       <c r="L19">
-        <v>7.909163443211556</v>
+        <v>7.698423414453519</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.90153307334583</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>48.19186637802787</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.30077426835775</v>
+        <v>16.28539927736733</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.667299237052312</v>
+        <v>7.62229750905904</v>
       </c>
       <c r="E20">
-        <v>8.299868990182313</v>
+        <v>11.48859978563109</v>
       </c>
       <c r="F20">
-        <v>30.80919112114682</v>
+        <v>42.37598469986843</v>
       </c>
       <c r="G20">
-        <v>40.84551650170719</v>
+        <v>67.29644144600235</v>
       </c>
       <c r="H20">
-        <v>12.60461236596181</v>
+        <v>4.960071643840689</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.351475168403622</v>
       </c>
       <c r="J20">
-        <v>6.565072986225749</v>
+        <v>17.19592846762098</v>
       </c>
       <c r="K20">
-        <v>16.62007687874419</v>
+        <v>35.17963685710077</v>
       </c>
       <c r="L20">
-        <v>8.016932922019695</v>
+        <v>7.211172247480214</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.81369902867684</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>50.67120294107118</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.09324341770046</v>
+        <v>17.24380577981923</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.730419466822957</v>
+        <v>7.927926324711009</v>
       </c>
       <c r="E21">
-        <v>8.262091492491066</v>
+        <v>11.82964678234892</v>
       </c>
       <c r="F21">
-        <v>31.57984209511487</v>
+        <v>45.18471895815879</v>
       </c>
       <c r="G21">
-        <v>42.24022437466331</v>
+        <v>72.18538385681323</v>
       </c>
       <c r="H21">
-        <v>12.7422637092493</v>
+        <v>5.607255844313565</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.193129514465809</v>
       </c>
       <c r="J21">
-        <v>6.510867847095655</v>
+        <v>18.20637449024601</v>
       </c>
       <c r="K21">
-        <v>17.65052291288008</v>
+        <v>36.89554565269125</v>
       </c>
       <c r="L21">
-        <v>8.388397286564084</v>
+        <v>7.331483851275543</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.52138721735123</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>53.8007161181291</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.60017548951773</v>
+        <v>17.87586163404011</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.772551889765452</v>
+        <v>8.1393446588025</v>
       </c>
       <c r="E22">
-        <v>8.239383406796346</v>
+        <v>12.09416409485043</v>
       </c>
       <c r="F22">
-        <v>32.10115878835447</v>
+        <v>46.86076367507567</v>
       </c>
       <c r="G22">
-        <v>43.1707588171561</v>
+        <v>75.1496860164327</v>
       </c>
       <c r="H22">
-        <v>12.84126471941656</v>
+        <v>6.013839214956039</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.081210585938455</v>
       </c>
       <c r="J22">
-        <v>6.476235202030551</v>
+        <v>18.81855612467292</v>
       </c>
       <c r="K22">
-        <v>18.29843037206718</v>
+        <v>37.92970076007319</v>
       </c>
       <c r="L22">
-        <v>8.689317214209984</v>
+        <v>7.427973084092245</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.33228095327575</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>55.63022748803764</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.33064579479703</v>
+        <v>17.5569934147736</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.749984222214791</v>
+        <v>8.025201092523142</v>
       </c>
       <c r="E23">
-        <v>8.251318388774852</v>
+        <v>11.9493931841012</v>
       </c>
       <c r="F23">
-        <v>31.82130238501728</v>
+        <v>45.99513139266562</v>
       </c>
       <c r="G23">
-        <v>42.67239504034976</v>
+        <v>73.60777486734369</v>
       </c>
       <c r="H23">
-        <v>12.78757789897854</v>
+        <v>5.794571366857584</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.131774160958865</v>
       </c>
       <c r="J23">
-        <v>6.494647595398662</v>
+        <v>18.50115932462083</v>
       </c>
       <c r="K23">
-        <v>17.95494196224959</v>
+        <v>37.25309587028644</v>
       </c>
       <c r="L23">
-        <v>8.529755607771865</v>
+        <v>7.376448743425663</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.43304311348218</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>54.59444621658498</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.28764214252561</v>
+        <v>16.26880868304102</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.666282375315353</v>
+        <v>7.592070039798543</v>
       </c>
       <c r="E24">
-        <v>8.300519164361683</v>
+        <v>11.40033168977395</v>
       </c>
       <c r="F24">
-        <v>30.79689231802239</v>
+        <v>42.63971510792546</v>
       </c>
       <c r="G24">
-        <v>40.82304677051819</v>
+        <v>67.64051778604411</v>
       </c>
       <c r="H24">
-        <v>12.60251039737955</v>
+        <v>4.968080743349916</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.339275540305073</v>
       </c>
       <c r="J24">
-        <v>6.565972539540381</v>
+        <v>17.28060960450954</v>
       </c>
       <c r="K24">
-        <v>16.6027978867267</v>
+        <v>34.84378718343613</v>
       </c>
       <c r="L24">
-        <v>8.011033792813139</v>
+        <v>7.17951484190209</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.8185115531626</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>50.62402443961263</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.1184527854417</v>
+        <v>14.75897101862654</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.579762395473413</v>
+        <v>7.115220219608499</v>
       </c>
       <c r="E25">
-        <v>8.361780494485895</v>
+        <v>10.78964877369712</v>
       </c>
       <c r="F25">
-        <v>29.76730227574317</v>
+        <v>38.93963294080095</v>
       </c>
       <c r="G25">
-        <v>38.9124367507752</v>
+        <v>61.0180707636334</v>
       </c>
       <c r="H25">
-        <v>12.43955945645778</v>
+        <v>4.069991113381957</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.566810130837698</v>
       </c>
       <c r="J25">
-        <v>6.646405795052234</v>
+        <v>15.95304733469257</v>
       </c>
       <c r="K25">
-        <v>15.0321621464178</v>
+        <v>32.14005753654031</v>
       </c>
       <c r="L25">
-        <v>7.487937771806778</v>
+        <v>6.961346827554547</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.24357168196605</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>46.0081453750465</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.59050801883423</v>
+        <v>14.77294731947172</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.749393185298101</v>
+        <v>6.42147027571948</v>
       </c>
       <c r="E2">
-        <v>10.30957169329639</v>
+        <v>9.789845664965345</v>
       </c>
       <c r="F2">
-        <v>36.22804622236234</v>
+        <v>38.33310952152048</v>
       </c>
       <c r="G2">
-        <v>56.03440320663382</v>
+        <v>58.48994844511202</v>
       </c>
       <c r="H2">
-        <v>3.391885771051833</v>
+        <v>3.156232467160597</v>
       </c>
       <c r="I2">
-        <v>3.717495290671788</v>
+        <v>3.436976530189344</v>
       </c>
       <c r="J2">
-        <v>14.99361584591959</v>
+        <v>16.25635118527737</v>
       </c>
       <c r="K2">
-        <v>29.70554798304891</v>
+        <v>21.44416144726017</v>
       </c>
       <c r="L2">
-        <v>6.793924428090256</v>
+        <v>15.74398216656691</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.20091086800281</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.698642676577949</v>
       </c>
       <c r="O2">
-        <v>42.11701666567589</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>37.43792450638203</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.70562734174056</v>
+        <v>13.85231510285028</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.496371145944284</v>
+        <v>6.199631848830093</v>
       </c>
       <c r="E3">
-        <v>9.977995521850806</v>
+        <v>9.504060842318136</v>
       </c>
       <c r="F3">
-        <v>34.30115767366804</v>
+        <v>36.32480124218381</v>
       </c>
       <c r="G3">
-        <v>52.45564559491594</v>
+        <v>54.79057791206186</v>
       </c>
       <c r="H3">
-        <v>2.925041549161585</v>
+        <v>2.722767081429957</v>
       </c>
       <c r="I3">
-        <v>3.833223165917769</v>
+        <v>3.525826952942294</v>
       </c>
       <c r="J3">
-        <v>14.32299198414879</v>
+        <v>15.54726856170524</v>
       </c>
       <c r="K3">
-        <v>28.2035092851798</v>
+        <v>20.51945854106749</v>
       </c>
       <c r="L3">
-        <v>6.676338848057931</v>
+        <v>14.77314481126771</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.75964048512701</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.591353360693458</v>
       </c>
       <c r="O3">
-        <v>39.40124597345376</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>34.95849031707362</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.12801670369334</v>
+        <v>13.25244874337035</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.337315071365151</v>
+        <v>6.06038852457726</v>
       </c>
       <c r="E4">
-        <v>9.768244153200282</v>
+        <v>9.323878726565393</v>
       </c>
       <c r="F4">
-        <v>33.09638963874864</v>
+        <v>35.06055570287837</v>
       </c>
       <c r="G4">
-        <v>50.18730605709877</v>
+        <v>52.4418752249092</v>
       </c>
       <c r="H4">
-        <v>2.632679220144947</v>
+        <v>2.450779106871295</v>
       </c>
       <c r="I4">
-        <v>3.905860707652221</v>
+        <v>3.582057968394746</v>
       </c>
       <c r="J4">
-        <v>13.90867376909702</v>
+        <v>15.10119009020684</v>
       </c>
       <c r="K4">
-        <v>27.26625650243288</v>
+        <v>19.95454996787608</v>
       </c>
       <c r="L4">
-        <v>6.601857755394577</v>
+        <v>14.18546204727607</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.49150281585722</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.523539008251299</v>
       </c>
       <c r="O4">
-        <v>37.64574629767724</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>33.35405626908848</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.87804490865797</v>
+        <v>12.99488911585617</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.272013177386506</v>
+        <v>6.003199845784931</v>
       </c>
       <c r="E5">
-        <v>9.682511440657445</v>
+        <v>9.24972889973623</v>
       </c>
       <c r="F5">
-        <v>32.59012510768983</v>
+        <v>34.53036102566058</v>
       </c>
       <c r="G5">
-        <v>49.23135194830412</v>
+        <v>51.45523144156623</v>
       </c>
       <c r="H5">
-        <v>2.51247298100024</v>
+        <v>2.338651124890678</v>
       </c>
       <c r="I5">
-        <v>3.938042219336603</v>
+        <v>3.608229405659937</v>
       </c>
       <c r="J5">
-        <v>13.73602861481954</v>
+        <v>14.91448676567162</v>
       </c>
       <c r="K5">
-        <v>26.92166655460688</v>
+        <v>19.75086968869734</v>
       </c>
       <c r="L5">
-        <v>6.570946239857273</v>
+        <v>13.96624296348409</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15.4038683376994</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.495096017198811</v>
       </c>
       <c r="O5">
-        <v>36.93227487255938</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>32.69732306120857</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.8287633483264</v>
+        <v>12.94620881595656</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.261672138828284</v>
+        <v>5.994049971691946</v>
       </c>
       <c r="E6">
-        <v>9.669786551968485</v>
+        <v>9.237937931848995</v>
       </c>
       <c r="F6">
-        <v>32.49326083762245</v>
+        <v>34.43266642274541</v>
       </c>
       <c r="G6">
-        <v>49.05435902240585</v>
+        <v>51.2774972547063</v>
       </c>
       <c r="H6">
-        <v>2.493003869117585</v>
+        <v>2.320263314149765</v>
       </c>
       <c r="I6">
-        <v>3.946200061428504</v>
+        <v>3.616240258310301</v>
       </c>
       <c r="J6">
-        <v>13.70330268404553</v>
+        <v>14.88042373381036</v>
       </c>
       <c r="K6">
-        <v>26.91411338249968</v>
+        <v>19.7482299030971</v>
       </c>
       <c r="L6">
-        <v>6.565817249246324</v>
+        <v>13.95104316336245</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>15.4149533596525</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.489978474216652</v>
       </c>
       <c r="O6">
-        <v>36.84189997145863</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>32.60867803905937</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.10538524346399</v>
+        <v>13.23841094463186</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.337952153790008</v>
+        <v>6.055027904423651</v>
       </c>
       <c r="E7">
-        <v>9.771427538169675</v>
+        <v>9.320616118404788</v>
       </c>
       <c r="F7">
-        <v>33.05618750324047</v>
+        <v>34.98433750537283</v>
       </c>
       <c r="G7">
-        <v>50.1287368293345</v>
+        <v>52.45454612057935</v>
       </c>
       <c r="H7">
-        <v>2.63268174397489</v>
+        <v>2.448395200861787</v>
       </c>
       <c r="I7">
-        <v>3.913591252734098</v>
+        <v>3.592019509585465</v>
       </c>
       <c r="J7">
-        <v>13.89554602544805</v>
+        <v>15.0076233027853</v>
       </c>
       <c r="K7">
-        <v>27.39578662260522</v>
+        <v>20.0427134019036</v>
       </c>
       <c r="L7">
-        <v>6.601563527219187</v>
+        <v>14.24468155220935</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.56451880609859</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.521289800351831</v>
       </c>
       <c r="O7">
-        <v>37.71458743808733</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>33.38773142941326</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.26906998487374</v>
+        <v>14.4567660259363</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.664839255318039</v>
+        <v>6.328866937726136</v>
       </c>
       <c r="E8">
-        <v>10.20199458570826</v>
+        <v>9.682028866434344</v>
       </c>
       <c r="F8">
-        <v>35.52749812706856</v>
+        <v>37.47805364896475</v>
       </c>
       <c r="G8">
-        <v>54.7602194885611</v>
+        <v>57.37359296798233</v>
       </c>
       <c r="H8">
-        <v>3.23424315771044</v>
+        <v>3.0034920261361</v>
       </c>
       <c r="I8">
-        <v>3.766083493490358</v>
+        <v>3.479355153218672</v>
       </c>
       <c r="J8">
-        <v>14.74964488920452</v>
+        <v>15.74124436155835</v>
       </c>
       <c r="K8">
-        <v>29.35971336951731</v>
+        <v>21.25511918515278</v>
       </c>
       <c r="L8">
-        <v>6.754046680976113</v>
+        <v>15.50035129296532</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.15197863187011</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.658049678212068</v>
       </c>
       <c r="O8">
-        <v>41.29419726279409</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>36.62340987895738</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.31152176372409</v>
+        <v>16.58105790162681</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.274961363885446</v>
+        <v>6.86134149856372</v>
       </c>
       <c r="E9">
-        <v>10.99137105392465</v>
+        <v>10.36629060720361</v>
       </c>
       <c r="F9">
-        <v>40.24552148377508</v>
+        <v>42.31450146299345</v>
       </c>
       <c r="G9">
-        <v>63.34642688547945</v>
+        <v>66.23329686211069</v>
       </c>
       <c r="H9">
-        <v>4.370833356769033</v>
+        <v>4.054829380933656</v>
       </c>
       <c r="I9">
-        <v>3.477160102593186</v>
+        <v>3.255860188131628</v>
       </c>
       <c r="J9">
-        <v>16.41780303010337</v>
+        <v>17.41022752501151</v>
       </c>
       <c r="K9">
-        <v>32.85453144874666</v>
+        <v>23.46741292876437</v>
       </c>
       <c r="L9">
-        <v>7.03546066760387</v>
+        <v>17.86687681873511</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.19010784871198</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.916766333555459</v>
       </c>
       <c r="O9">
-        <v>47.49468929685273</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>42.28324514711314</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.67653085098561</v>
+        <v>18.03189264930356</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.737406525232918</v>
+        <v>7.239298469072023</v>
       </c>
       <c r="E10">
-        <v>11.64155511890531</v>
+        <v>10.90251970985242</v>
       </c>
       <c r="F10">
-        <v>43.25397679903767</v>
+        <v>45.17136892076105</v>
       </c>
       <c r="G10">
-        <v>68.84598342213795</v>
+        <v>72.19151245727278</v>
       </c>
       <c r="H10">
-        <v>5.163855989014083</v>
+        <v>4.773564470751258</v>
       </c>
       <c r="I10">
-        <v>3.275773915128524</v>
+        <v>3.105427396970485</v>
       </c>
       <c r="J10">
-        <v>17.51419959121627</v>
+        <v>18.07104274740187</v>
       </c>
       <c r="K10">
-        <v>35.5129331443428</v>
+        <v>25.22851824871208</v>
       </c>
       <c r="L10">
-        <v>7.269807183700496</v>
+        <v>19.69089204362587</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.08206497915095</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.114442914697083</v>
       </c>
       <c r="O10">
-        <v>51.52207987863468</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>45.84044147776638</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.52540595789831</v>
+        <v>19.01337950648594</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.204547496061423</v>
+        <v>7.602847408608894</v>
       </c>
       <c r="E11">
-        <v>12.87769167902928</v>
+        <v>11.84812983018131</v>
       </c>
       <c r="F11">
-        <v>41.73039635363285</v>
+        <v>43.33895421048229</v>
       </c>
       <c r="G11">
-        <v>67.3834849912524</v>
+        <v>71.51048092945706</v>
       </c>
       <c r="H11">
-        <v>5.683141549100506</v>
+        <v>5.275877575429961</v>
       </c>
       <c r="I11">
-        <v>3.202569380986991</v>
+        <v>3.061728928384114</v>
       </c>
       <c r="J11">
-        <v>17.07031172960042</v>
+        <v>16.79544926798413</v>
       </c>
       <c r="K11">
-        <v>37.9834040415316</v>
+        <v>26.89872311736123</v>
       </c>
       <c r="L11">
-        <v>7.793207922833492</v>
+        <v>21.1559383093721</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>19.16369311550902</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.461192948834055</v>
       </c>
       <c r="O11">
-        <v>52.14316374933692</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>45.9288634853462</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.99062575795958</v>
+        <v>19.55266945077529</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.51643403876642</v>
+        <v>7.857899389114344</v>
       </c>
       <c r="E12">
-        <v>13.92403754223735</v>
+        <v>12.69715223523457</v>
       </c>
       <c r="F12">
-        <v>39.81785834665089</v>
+        <v>41.31671878962753</v>
       </c>
       <c r="G12">
-        <v>65.01919616910745</v>
+        <v>69.53535607537439</v>
       </c>
       <c r="H12">
-        <v>6.409476770559558</v>
+        <v>6.036989944975898</v>
       </c>
       <c r="I12">
-        <v>3.169309882210468</v>
+        <v>3.038682689003247</v>
       </c>
       <c r="J12">
-        <v>16.46417161717609</v>
+        <v>15.82515413580473</v>
       </c>
       <c r="K12">
-        <v>39.35702505639092</v>
+        <v>27.81310869080186</v>
       </c>
       <c r="L12">
-        <v>8.305449288486919</v>
+        <v>21.91879602067393</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.78998220752389</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.839422838629677</v>
       </c>
       <c r="O12">
-        <v>51.73640511048006</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>45.23365192000306</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.18218366270265</v>
+        <v>19.77944969813991</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.732759988309086</v>
+        <v>8.067640051841016</v>
       </c>
       <c r="E13">
-        <v>14.88316199396453</v>
+        <v>13.52926573358353</v>
       </c>
       <c r="F13">
-        <v>37.38788652335261</v>
+        <v>39.0245226488373</v>
       </c>
       <c r="G13">
-        <v>61.66406474162795</v>
+        <v>66.21407724929597</v>
       </c>
       <c r="H13">
-        <v>7.255135328082751</v>
+        <v>6.940324570538806</v>
       </c>
       <c r="I13">
-        <v>3.176339490149756</v>
+        <v>3.045200738446823</v>
       </c>
       <c r="J13">
-        <v>15.66459330714265</v>
+        <v>15.17246413614489</v>
       </c>
       <c r="K13">
-        <v>40.17223423501952</v>
+        <v>28.31604579002245</v>
       </c>
       <c r="L13">
-        <v>8.823483314282935</v>
+        <v>22.27263327077064</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.19227117690407</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>8.249650933484924</v>
       </c>
       <c r="O13">
-        <v>50.59583969555844</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>43.97070376452174</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.19153995374625</v>
+        <v>19.79785444644891</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.844821326843759</v>
+        <v>8.199760224355611</v>
       </c>
       <c r="E14">
-        <v>15.53081940140611</v>
+        <v>14.12119274894757</v>
       </c>
       <c r="F14">
-        <v>35.41544297577228</v>
+        <v>37.26009009194471</v>
       </c>
       <c r="G14">
-        <v>58.81044237773521</v>
+        <v>63.23033923714927</v>
       </c>
       <c r="H14">
-        <v>7.916417127186214</v>
+        <v>7.645502705125612</v>
       </c>
       <c r="I14">
-        <v>3.201673011251133</v>
+        <v>3.066149490666418</v>
       </c>
       <c r="J14">
-        <v>15.00658914197466</v>
+        <v>14.84129613776371</v>
       </c>
       <c r="K14">
-        <v>40.53438907565989</v>
+        <v>28.51057739808187</v>
       </c>
       <c r="L14">
-        <v>9.196527520472001</v>
+        <v>22.35591106248354</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.39513200572</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>8.559087952366257</v>
       </c>
       <c r="O14">
-        <v>49.46718242337983</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>42.82315253957596</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.12936296229264</v>
+        <v>19.73166091124765</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.850970634318804</v>
+        <v>8.221701622806412</v>
       </c>
       <c r="E15">
-        <v>15.65891542742345</v>
+        <v>14.24763345128149</v>
       </c>
       <c r="F15">
-        <v>34.81181024636248</v>
+        <v>36.75614175170476</v>
       </c>
       <c r="G15">
-        <v>57.88065979026733</v>
+        <v>62.20385394572393</v>
       </c>
       <c r="H15">
-        <v>8.05829879818474</v>
+        <v>7.800526768351363</v>
       </c>
       <c r="I15">
-        <v>3.219966016613164</v>
+        <v>3.082134162571636</v>
       </c>
       <c r="J15">
-        <v>14.80167127504951</v>
+        <v>14.81198527549165</v>
       </c>
       <c r="K15">
-        <v>40.54909548519736</v>
+        <v>28.50191151274244</v>
       </c>
       <c r="L15">
-        <v>9.276434214598577</v>
+        <v>22.31199623129938</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.42158635756939</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>8.627105935397941</v>
       </c>
       <c r="O15">
-        <v>49.05634120349453</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>42.43434450404511</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.5426856151273</v>
+        <v>19.07468388796934</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.623116872366797</v>
+        <v>8.087687010404403</v>
       </c>
       <c r="E16">
-        <v>15.2397107018026</v>
+        <v>13.93815647147608</v>
       </c>
       <c r="F16">
-        <v>33.84117101830095</v>
+        <v>36.16294615662695</v>
       </c>
       <c r="G16">
-        <v>55.90352304984761</v>
+        <v>59.64748266823645</v>
       </c>
       <c r="H16">
-        <v>7.675147601380121</v>
+        <v>7.447952634102473</v>
       </c>
       <c r="I16">
-        <v>3.309798955005656</v>
+        <v>3.151098805629889</v>
       </c>
       <c r="J16">
-        <v>14.44277657749413</v>
+        <v>15.23715027081486</v>
       </c>
       <c r="K16">
-        <v>39.40938729776801</v>
+        <v>27.67971836694004</v>
       </c>
       <c r="L16">
-        <v>9.082173680966827</v>
+        <v>21.48496860377282</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.9835492277121</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>8.470493630533168</v>
       </c>
       <c r="O16">
-        <v>47.5988033826051</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>41.27507766355046</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.07541919109208</v>
+        <v>18.55681245912783</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.383157582268561</v>
+        <v>7.896819482646915</v>
       </c>
       <c r="E17">
-        <v>14.54668692636295</v>
+        <v>13.34930418001183</v>
       </c>
       <c r="F17">
-        <v>34.19254893807855</v>
+        <v>36.6337328253827</v>
       </c>
       <c r="G17">
-        <v>56.00424349813421</v>
+        <v>59.42164842004617</v>
       </c>
       <c r="H17">
-        <v>6.968402139989827</v>
+        <v>6.742085627699603</v>
       </c>
       <c r="I17">
-        <v>3.365689325199562</v>
+        <v>3.193505317689003</v>
       </c>
       <c r="J17">
-        <v>14.53131994704946</v>
+        <v>15.64546857318864</v>
       </c>
       <c r="K17">
-        <v>38.32275600740209</v>
+        <v>26.94621361985982</v>
       </c>
       <c r="L17">
-        <v>8.721174996682725</v>
+        <v>20.80592219482757</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>19.54087186861298</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>8.171998396726602</v>
       </c>
       <c r="O17">
-        <v>47.09046395825532</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>40.992492985152</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.67952363922121</v>
+        <v>18.10623334688776</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.110682379925679</v>
+        <v>7.653064891369993</v>
       </c>
       <c r="E18">
-        <v>13.57678519581137</v>
+        <v>12.50997252359065</v>
       </c>
       <c r="F18">
-        <v>35.73666175952798</v>
+        <v>38.16211689845008</v>
       </c>
       <c r="G18">
-        <v>57.90628298327846</v>
+        <v>61.11093604342107</v>
       </c>
       <c r="H18">
-        <v>5.991111346568139</v>
+        <v>5.738909814855943</v>
       </c>
       <c r="I18">
-        <v>3.390444539945897</v>
+        <v>3.207181398487725</v>
       </c>
       <c r="J18">
-        <v>15.01773689562564</v>
+        <v>16.23806041801274</v>
       </c>
       <c r="K18">
-        <v>37.06822603631893</v>
+        <v>26.13131025261903</v>
       </c>
       <c r="L18">
-        <v>8.211423372029646</v>
+        <v>20.12492657467176</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.98383711327868</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.760911545725582</v>
       </c>
       <c r="O18">
-        <v>47.30536382419685</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>41.43331990246718</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.34971519190412</v>
+        <v>17.72705305301295</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.847570898996572</v>
+        <v>7.40458461333211</v>
       </c>
       <c r="E19">
-        <v>12.55994678076808</v>
+        <v>11.64349289982067</v>
       </c>
       <c r="F19">
-        <v>38.04190275128801</v>
+        <v>40.39201452898865</v>
       </c>
       <c r="G19">
-        <v>61.0098881486832</v>
+        <v>64.0742432141498</v>
       </c>
       <c r="H19">
-        <v>5.123524356124647</v>
+        <v>4.822590186550801</v>
       </c>
       <c r="I19">
-        <v>3.402629694419733</v>
+        <v>3.216237835317914</v>
       </c>
       <c r="J19">
-        <v>15.76062540542014</v>
+        <v>16.97744665754234</v>
       </c>
       <c r="K19">
-        <v>36.0079704731689</v>
+        <v>25.46626851703992</v>
       </c>
       <c r="L19">
-        <v>7.698423414453519</v>
+        <v>19.60805461274407</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>18.49454047061731</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.370538808981264</v>
       </c>
       <c r="O19">
-        <v>48.19186637802787</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>42.50556228485973</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.28539927736733</v>
+        <v>17.61691043806223</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.62229750905904</v>
+        <v>7.162648869529368</v>
       </c>
       <c r="E20">
-        <v>11.48859978563109</v>
+        <v>10.78303694603958</v>
       </c>
       <c r="F20">
-        <v>42.37598469986843</v>
+        <v>44.4851929191687</v>
       </c>
       <c r="G20">
-        <v>67.29644144600235</v>
+        <v>70.38159913355481</v>
       </c>
       <c r="H20">
-        <v>4.960071643840689</v>
+        <v>4.592759973887542</v>
       </c>
       <c r="I20">
-        <v>3.351475168403622</v>
+        <v>3.175049679272366</v>
       </c>
       <c r="J20">
-        <v>17.19592846762098</v>
+        <v>18.12575004416177</v>
       </c>
       <c r="K20">
-        <v>35.17963685710077</v>
+        <v>24.98939110962516</v>
       </c>
       <c r="L20">
-        <v>7.211172247480214</v>
+        <v>19.37842714147476</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.01836205738278</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.064095814986728</v>
       </c>
       <c r="O20">
-        <v>50.67120294107118</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>45.1019689877494</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.24380577981923</v>
+        <v>18.6928401737605</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.927926324711009</v>
+        <v>7.318866136283305</v>
       </c>
       <c r="E21">
-        <v>11.82964678234892</v>
+        <v>11.01947503143083</v>
       </c>
       <c r="F21">
-        <v>45.18471895815879</v>
+        <v>46.47976824813968</v>
       </c>
       <c r="G21">
-        <v>72.18538385681323</v>
+        <v>76.41506455508961</v>
       </c>
       <c r="H21">
-        <v>5.607255844313565</v>
+        <v>5.152407972528073</v>
       </c>
       <c r="I21">
-        <v>3.193129514465809</v>
+        <v>3.055609314774236</v>
       </c>
       <c r="J21">
-        <v>18.20637449024601</v>
+        <v>17.49584637398817</v>
       </c>
       <c r="K21">
-        <v>36.89554565269125</v>
+        <v>26.2535625756738</v>
       </c>
       <c r="L21">
-        <v>7.331483851275543</v>
+        <v>20.70467445417911</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.64507062127637</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.172349312689802</v>
       </c>
       <c r="O21">
-        <v>53.8007161181291</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>47.71116270810293</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.87586163404011</v>
+        <v>19.40095439169461</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.1393446588025</v>
+        <v>7.432422350942043</v>
       </c>
       <c r="E22">
-        <v>12.09416409485043</v>
+        <v>11.20779908397812</v>
       </c>
       <c r="F22">
-        <v>46.86076367507567</v>
+        <v>47.58764157431852</v>
       </c>
       <c r="G22">
-        <v>75.1496860164327</v>
+        <v>80.12304817496421</v>
       </c>
       <c r="H22">
-        <v>6.013839214956039</v>
+        <v>5.501031303916981</v>
       </c>
       <c r="I22">
-        <v>3.081210585938455</v>
+        <v>2.966457981828263</v>
       </c>
       <c r="J22">
-        <v>18.81855612467292</v>
+        <v>16.96654164675951</v>
       </c>
       <c r="K22">
-        <v>37.92970076007319</v>
+        <v>27.02676119898631</v>
       </c>
       <c r="L22">
-        <v>7.427973084092245</v>
+        <v>21.52450412859994</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.0213196321146</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.253795033424638</v>
       </c>
       <c r="O22">
-        <v>55.63022748803764</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>49.20402423066891</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.5569934147736</v>
+        <v>19.03063443331973</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.025201092523142</v>
+        <v>7.381952640013226</v>
       </c>
       <c r="E23">
-        <v>11.9493931841012</v>
+        <v>11.11328777094966</v>
       </c>
       <c r="F23">
-        <v>45.99513139266562</v>
+        <v>47.10849210128312</v>
       </c>
       <c r="G23">
-        <v>73.60777486734369</v>
+        <v>78.06528936674879</v>
       </c>
       <c r="H23">
-        <v>5.794571366857584</v>
+        <v>5.317478107264691</v>
       </c>
       <c r="I23">
-        <v>3.131774160958865</v>
+        <v>3.001775220858775</v>
       </c>
       <c r="J23">
-        <v>18.50115932462083</v>
+        <v>17.43240473104971</v>
       </c>
       <c r="K23">
-        <v>37.25309587028644</v>
+        <v>26.51344861833562</v>
       </c>
       <c r="L23">
-        <v>7.376448743425663</v>
+        <v>21.01317943237117</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.74242000016826</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.212794352221671</v>
       </c>
       <c r="O23">
-        <v>54.59444621658498</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>48.39452992904977</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.26880868304102</v>
+        <v>17.58725351805667</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.592070039798543</v>
+        <v>7.135581444556985</v>
       </c>
       <c r="E24">
-        <v>11.40033168977395</v>
+        <v>10.71887623067829</v>
       </c>
       <c r="F24">
-        <v>42.63971510792546</v>
+        <v>44.73384086520495</v>
       </c>
       <c r="G24">
-        <v>67.64051778604411</v>
+        <v>70.68790983886568</v>
       </c>
       <c r="H24">
-        <v>4.968080743349916</v>
+        <v>4.602943294388808</v>
       </c>
       <c r="I24">
-        <v>3.339275540305073</v>
+        <v>3.157482894919371</v>
       </c>
       <c r="J24">
-        <v>17.28060960450954</v>
+        <v>18.21620010822237</v>
       </c>
       <c r="K24">
-        <v>34.84378718343613</v>
+        <v>24.76690039004272</v>
       </c>
       <c r="L24">
-        <v>7.17951484190209</v>
+        <v>19.20800312400649</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.85220479138178</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.048266896782511</v>
       </c>
       <c r="O24">
-        <v>50.62402443961263</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>45.10800857546307</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.75897101862654</v>
+        <v>16.00989450309705</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.115220219608499</v>
+        <v>6.728815850940002</v>
       </c>
       <c r="E25">
-        <v>10.78964877369712</v>
+        <v>10.19254353616416</v>
       </c>
       <c r="F25">
-        <v>38.93963294080095</v>
+        <v>41.05290689609665</v>
       </c>
       <c r="G25">
-        <v>61.0180707636334</v>
+        <v>63.78221326288963</v>
       </c>
       <c r="H25">
-        <v>4.069991113381957</v>
+        <v>3.778380540978474</v>
       </c>
       <c r="I25">
-        <v>3.566810130837698</v>
+        <v>3.331724579787728</v>
       </c>
       <c r="J25">
-        <v>15.95304733469257</v>
+        <v>17.06251075152186</v>
       </c>
       <c r="K25">
-        <v>32.14005753654031</v>
+        <v>23.00521532131838</v>
       </c>
       <c r="L25">
-        <v>6.961346827554547</v>
+        <v>17.32694529551049</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.01227803136644</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.847792594659909</v>
       </c>
       <c r="O25">
-        <v>46.0081453750465</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>40.92540403967389</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
